--- a/Testing.xlsx
+++ b/Testing.xlsx
@@ -1,29 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\WeatherApp\WeatherApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\Desktop\WeatherApp\WeatherApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18DEB0C-BFAE-4B89-9391-B80CF022F256}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4B0E23-8AF0-4EBE-86F1-41DAAD7D19C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="817" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="817" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Activity" sheetId="1" r:id="rId1"/>
     <sheet name="Weather Activity" sheetId="11" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -190,9 +183,6 @@
     <t>About Developers</t>
   </si>
   <si>
-    <t>by clicking on this button the weather activity form should be open ith all weather information.</t>
-  </si>
-  <si>
     <t>by clicking this button, the role of all the developers should be display on the screen.</t>
   </si>
   <si>
@@ -205,19 +195,22 @@
     <t>After click of search button</t>
   </si>
   <si>
-    <t>The searched place'sname should be display on the top. Below that the current weather condition, teamperature and pressure should be shown on the screen.</t>
-  </si>
-  <si>
     <t>Back button</t>
-  </si>
-  <si>
-    <t>by clicking on this button, the weather activity form sgould be close and return back to main activity form.</t>
   </si>
   <si>
     <t>Not Run</t>
   </si>
   <si>
     <t>Exit button working as a back button. It just return back to the main activity form rather than close the application.</t>
+  </si>
+  <si>
+    <t>by clicking on this button the weather activity form should be open with all weather information.</t>
+  </si>
+  <si>
+    <t>by clicking on this button, the weather activity form should be close and return back to main activity form.</t>
+  </si>
+  <si>
+    <t>The searched place'sname should be display on the top. Below that the current weather condition, temperature and pressure should be shown on the screen.</t>
   </si>
 </sst>
 </file>
@@ -429,6 +422,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -446,12 +445,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1187,7 +1180,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,11 +1201,11 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1239,14 +1232,14 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="12"/>
       <c r="F2" s="13" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>10</v>
@@ -1262,14 +1255,14 @@
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="12"/>
       <c r="F3" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>10</v>
@@ -1285,21 +1278,21 @@
       <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>16</v>
+      <c r="B4" s="26" t="s">
+        <v>15</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="12"/>
       <c r="F4" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="15" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J4" s="18"/>
       <c r="K4" s="16"/>
@@ -1316,9 +1309,9 @@
     </row>
     <row r="6" spans="1:11" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="4"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1329,9 +1322,9 @@
     </row>
     <row r="7" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1342,9 +1335,9 @@
     </row>
     <row r="8" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="4"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1355,9 +1348,9 @@
     </row>
     <row r="9" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -1368,9 +1361,9 @@
     </row>
     <row r="10" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1381,9 +1374,9 @@
     </row>
     <row r="11" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1394,9 +1387,9 @@
     </row>
     <row r="12" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="4"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -1407,9 +1400,9 @@
     </row>
     <row r="13" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="4"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -1420,9 +1413,9 @@
     </row>
     <row r="14" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -1433,9 +1426,9 @@
     </row>
     <row r="15" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="4"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -1446,9 +1439,9 @@
     </row>
     <row r="16" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="4"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -1459,9 +1452,9 @@
     </row>
     <row r="17" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="4"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -1472,9 +1465,9 @@
     </row>
     <row r="18" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="4"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -1485,9 +1478,9 @@
     </row>
     <row r="19" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -1498,9 +1491,9 @@
     </row>
     <row r="20" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -1511,9 +1504,9 @@
     </row>
     <row r="21" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="4"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -1524,9 +1517,9 @@
     </row>
     <row r="22" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -1537,9 +1530,9 @@
     </row>
     <row r="23" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="4"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -1550,9 +1543,9 @@
     </row>
     <row r="24" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -1563,9 +1556,9 @@
     </row>
     <row r="25" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="4"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -1576,9 +1569,9 @@
     </row>
     <row r="26" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="4"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -1589,9 +1582,9 @@
     </row>
     <row r="27" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="4"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -1602,9 +1595,9 @@
     </row>
     <row r="28" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="4"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -1615,9 +1608,9 @@
     </row>
     <row r="29" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="4"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -1628,9 +1621,9 @@
     </row>
     <row r="30" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -1641,9 +1634,9 @@
     </row>
     <row r="31" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -1654,9 +1647,9 @@
     </row>
     <row r="32" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="4"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -1667,9 +1660,9 @@
     </row>
     <row r="33" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
       <c r="E33" s="4"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -1680,9 +1673,9 @@
     </row>
     <row r="34" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
       <c r="E34" s="4"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -1693,9 +1686,9 @@
     </row>
     <row r="35" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="4"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -1706,9 +1699,9 @@
     </row>
     <row r="36" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="4"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -1719,9 +1712,9 @@
     </row>
     <row r="37" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="4"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -1732,9 +1725,9 @@
     </row>
     <row r="38" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
       <c r="E38" s="4"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -1745,9 +1738,9 @@
     </row>
     <row r="39" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="4"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
@@ -1758,9 +1751,9 @@
     </row>
     <row r="40" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="4"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -1771,9 +1764,9 @@
     </row>
     <row r="41" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="4"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
@@ -1784,9 +1777,9 @@
     </row>
     <row r="42" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
       <c r="E42" s="4"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
@@ -1797,9 +1790,9 @@
     </row>
     <row r="43" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
       <c r="E43" s="4"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -1810,9 +1803,9 @@
     </row>
     <row r="44" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
       <c r="E44" s="4"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -1823,9 +1816,9 @@
     </row>
     <row r="45" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
       <c r="E45" s="4"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -1836,9 +1829,9 @@
     </row>
     <row r="46" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
       <c r="E46" s="4"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -1849,9 +1842,9 @@
     </row>
     <row r="47" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
       <c r="E47" s="4"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -1862,9 +1855,9 @@
     </row>
     <row r="48" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
       <c r="E48" s="4"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -1875,9 +1868,9 @@
     </row>
     <row r="49" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
       <c r="E49" s="4"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
@@ -1888,9 +1881,9 @@
     </row>
     <row r="50" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
       <c r="E50" s="4"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -1901,9 +1894,9 @@
     </row>
     <row r="51" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
       <c r="E51" s="4"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
@@ -1914,9 +1907,9 @@
     </row>
     <row r="52" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
       <c r="E52" s="4"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
@@ -1927,9 +1920,9 @@
     </row>
     <row r="53" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
       <c r="E53" s="4"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
@@ -1940,9 +1933,9 @@
     </row>
     <row r="54" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
       <c r="E54" s="4"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
@@ -1953,9 +1946,9 @@
     </row>
     <row r="55" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
       <c r="E55" s="4"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
@@ -1966,9 +1959,9 @@
     </row>
     <row r="56" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
       <c r="E56" s="4"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
@@ -1979,9 +1972,9 @@
     </row>
     <row r="57" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
       <c r="E57" s="4"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
@@ -1992,9 +1985,9 @@
     </row>
     <row r="58" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
       <c r="E58" s="4"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
@@ -2005,9 +1998,9 @@
     </row>
     <row r="59" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
       <c r="E59" s="4"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
@@ -2018,9 +2011,9 @@
     </row>
     <row r="60" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
       <c r="E60" s="4"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -2031,9 +2024,9 @@
     </row>
     <row r="61" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
       <c r="E61" s="4"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -2044,9 +2037,9 @@
     </row>
     <row r="62" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
       <c r="E62" s="4"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -2057,9 +2050,9 @@
     </row>
     <row r="63" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
       <c r="E63" s="4"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
@@ -2070,9 +2063,9 @@
     </row>
     <row r="64" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
       <c r="E64" s="4"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -2083,9 +2076,9 @@
     </row>
     <row r="65" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
       <c r="E65" s="4"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
@@ -2096,9 +2089,9 @@
     </row>
     <row r="66" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
       <c r="E66" s="4"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
@@ -2109,9 +2102,9 @@
     </row>
     <row r="67" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
       <c r="E67" s="4"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
@@ -2122,9 +2115,9 @@
     </row>
     <row r="68" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
       <c r="E68" s="4"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
@@ -2135,9 +2128,9 @@
     </row>
     <row r="69" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
       <c r="E69" s="4"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
@@ -2148,9 +2141,9 @@
     </row>
     <row r="70" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
       <c r="E70" s="4"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -2161,9 +2154,9 @@
     </row>
     <row r="71" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
       <c r="E71" s="4"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
@@ -2174,9 +2167,9 @@
     </row>
     <row r="72" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
       <c r="E72" s="4"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
@@ -2187,9 +2180,9 @@
     </row>
     <row r="73" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
       <c r="E73" s="4"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
@@ -2200,9 +2193,9 @@
     </row>
     <row r="74" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
       <c r="E74" s="4"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
@@ -2213,9 +2206,9 @@
     </row>
     <row r="75" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
       <c r="E75" s="4"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
@@ -2226,9 +2219,9 @@
     </row>
     <row r="76" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
       <c r="E76" s="4"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
@@ -2239,9 +2232,9 @@
     </row>
     <row r="77" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
       <c r="E77" s="4"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
@@ -2252,9 +2245,9 @@
     </row>
     <row r="78" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
       <c r="E78" s="4"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
@@ -2265,9 +2258,9 @@
     </row>
     <row r="79" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
       <c r="E79" s="4"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
@@ -2278,9 +2271,9 @@
     </row>
     <row r="80" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
       <c r="E80" s="4"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
@@ -2291,9 +2284,9 @@
     </row>
     <row r="81" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
       <c r="E81" s="4"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
@@ -2304,9 +2297,9 @@
     </row>
     <row r="82" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
       <c r="E82" s="4"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
@@ -2317,9 +2310,9 @@
     </row>
     <row r="83" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
       <c r="E83" s="4"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
@@ -2330,9 +2323,9 @@
     </row>
     <row r="84" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
       <c r="E84" s="4"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -2343,9 +2336,9 @@
     </row>
     <row r="85" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
       <c r="E85" s="4"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
@@ -2356,9 +2349,9 @@
     </row>
     <row r="86" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
       <c r="E86" s="4"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
@@ -2369,9 +2362,9 @@
     </row>
     <row r="87" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
       <c r="E87" s="4"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
@@ -2382,9 +2375,9 @@
     </row>
     <row r="88" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
       <c r="E88" s="4"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
@@ -2395,9 +2388,9 @@
     </row>
     <row r="89" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="21"/>
-      <c r="D89" s="21"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
       <c r="E89" s="4"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
@@ -2408,9 +2401,9 @@
     </row>
     <row r="90" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="21"/>
-      <c r="D90" s="21"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
       <c r="E90" s="4"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
@@ -2421,9 +2414,9 @@
     </row>
     <row r="91" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="21"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
       <c r="E91" s="4"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
@@ -2434,9 +2427,9 @@
     </row>
     <row r="92" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
       <c r="E92" s="4"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
@@ -2447,9 +2440,9 @@
     </row>
     <row r="93" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="21"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
       <c r="E93" s="4"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
@@ -2460,9 +2453,9 @@
     </row>
     <row r="94" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="21"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
       <c r="E94" s="4"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
@@ -2473,9 +2466,9 @@
     </row>
     <row r="95" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="21"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
       <c r="E95" s="4"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
@@ -2486,9 +2479,9 @@
     </row>
     <row r="96" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="21"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
       <c r="E96" s="4"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
@@ -2499,9 +2492,9 @@
     </row>
     <row r="97" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
-      <c r="B97" s="21"/>
-      <c r="C97" s="21"/>
-      <c r="D97" s="21"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
       <c r="E97" s="4"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
@@ -2512,9 +2505,9 @@
     </row>
     <row r="98" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
-      <c r="B98" s="21"/>
-      <c r="C98" s="21"/>
-      <c r="D98" s="21"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
       <c r="E98" s="4"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
@@ -2525,9 +2518,9 @@
     </row>
     <row r="99" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="21"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
       <c r="E99" s="4"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
@@ -2538,9 +2531,9 @@
     </row>
     <row r="100" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
-      <c r="B100" s="21"/>
-      <c r="C100" s="21"/>
-      <c r="D100" s="21"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
       <c r="E100" s="4"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
@@ -2551,9 +2544,9 @@
     </row>
     <row r="101" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
-      <c r="B101" s="21"/>
-      <c r="C101" s="21"/>
-      <c r="D101" s="21"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
       <c r="E101" s="4"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
@@ -2564,9 +2557,9 @@
     </row>
     <row r="102" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
-      <c r="B102" s="21"/>
-      <c r="C102" s="21"/>
-      <c r="D102" s="21"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
       <c r="E102" s="4"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
@@ -2577,9 +2570,9 @@
     </row>
     <row r="103" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
-      <c r="B103" s="21"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="21"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
       <c r="E103" s="4"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
@@ -2590,9 +2583,9 @@
     </row>
     <row r="104" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
-      <c r="B104" s="21"/>
-      <c r="C104" s="21"/>
-      <c r="D104" s="21"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="23"/>
       <c r="E104" s="4"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
@@ -2603,9 +2596,9 @@
     </row>
     <row r="105" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
-      <c r="B105" s="21"/>
-      <c r="C105" s="21"/>
-      <c r="D105" s="21"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="23"/>
       <c r="E105" s="4"/>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
@@ -2616,9 +2609,9 @@
     </row>
     <row r="106" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
-      <c r="B106" s="21"/>
-      <c r="C106" s="21"/>
-      <c r="D106" s="21"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="23"/>
       <c r="E106" s="4"/>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
@@ -2629,9 +2622,9 @@
     </row>
     <row r="107" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
-      <c r="B107" s="21"/>
-      <c r="C107" s="21"/>
-      <c r="D107" s="21"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="23"/>
       <c r="E107" s="4"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
@@ -2642,9 +2635,9 @@
     </row>
     <row r="108" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
-      <c r="B108" s="21"/>
-      <c r="C108" s="21"/>
-      <c r="D108" s="21"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="23"/>
       <c r="E108" s="4"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
@@ -2655,9 +2648,9 @@
     </row>
     <row r="109" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
-      <c r="B109" s="21"/>
-      <c r="C109" s="21"/>
-      <c r="D109" s="21"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
       <c r="E109" s="4"/>
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
@@ -2668,9 +2661,9 @@
     </row>
     <row r="110" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
-      <c r="B110" s="21"/>
-      <c r="C110" s="21"/>
-      <c r="D110" s="21"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
       <c r="E110" s="4"/>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
@@ -2681,9 +2674,9 @@
     </row>
     <row r="111" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
-      <c r="B111" s="21"/>
-      <c r="C111" s="21"/>
-      <c r="D111" s="21"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="23"/>
       <c r="E111" s="4"/>
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
@@ -2694,9 +2687,9 @@
     </row>
     <row r="112" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
-      <c r="B112" s="21"/>
-      <c r="C112" s="21"/>
-      <c r="D112" s="21"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
       <c r="E112" s="4"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
@@ -2707,9 +2700,9 @@
     </row>
     <row r="113" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
-      <c r="B113" s="21"/>
-      <c r="C113" s="21"/>
-      <c r="D113" s="21"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="23"/>
       <c r="E113" s="4"/>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
@@ -2720,9 +2713,9 @@
     </row>
     <row r="114" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
-      <c r="B114" s="21"/>
-      <c r="C114" s="21"/>
-      <c r="D114" s="21"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
       <c r="E114" s="4"/>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
@@ -2733,9 +2726,9 @@
     </row>
     <row r="115" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
-      <c r="B115" s="21"/>
-      <c r="C115" s="21"/>
-      <c r="D115" s="21"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="23"/>
+      <c r="D115" s="23"/>
       <c r="E115" s="4"/>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
@@ -2746,9 +2739,9 @@
     </row>
     <row r="116" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
-      <c r="B116" s="21"/>
-      <c r="C116" s="21"/>
-      <c r="D116" s="21"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="23"/>
+      <c r="D116" s="23"/>
       <c r="E116" s="4"/>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
@@ -2759,9 +2752,9 @@
     </row>
     <row r="117" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
-      <c r="B117" s="21"/>
-      <c r="C117" s="21"/>
-      <c r="D117" s="21"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="23"/>
+      <c r="D117" s="23"/>
       <c r="E117" s="4"/>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
@@ -2772,9 +2765,9 @@
     </row>
     <row r="118" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
-      <c r="B118" s="21"/>
-      <c r="C118" s="21"/>
-      <c r="D118" s="21"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="23"/>
+      <c r="D118" s="23"/>
       <c r="E118" s="4"/>
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
@@ -2785,9 +2778,9 @@
     </row>
     <row r="119" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
-      <c r="B119" s="21"/>
-      <c r="C119" s="21"/>
-      <c r="D119" s="21"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="23"/>
+      <c r="D119" s="23"/>
       <c r="E119" s="4"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
@@ -2798,9 +2791,9 @@
     </row>
     <row r="120" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
-      <c r="B120" s="21"/>
-      <c r="C120" s="21"/>
-      <c r="D120" s="21"/>
+      <c r="B120" s="23"/>
+      <c r="C120" s="23"/>
+      <c r="D120" s="23"/>
       <c r="E120" s="4"/>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
@@ -2811,9 +2804,9 @@
     </row>
     <row r="121" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
-      <c r="B121" s="21"/>
-      <c r="C121" s="21"/>
-      <c r="D121" s="21"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="23"/>
+      <c r="D121" s="23"/>
       <c r="E121" s="4"/>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
@@ -2824,9 +2817,9 @@
     </row>
     <row r="122" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
-      <c r="B122" s="21"/>
-      <c r="C122" s="21"/>
-      <c r="D122" s="21"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="23"/>
       <c r="E122" s="4"/>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
@@ -2837,9 +2830,9 @@
     </row>
     <row r="123" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
-      <c r="B123" s="21"/>
-      <c r="C123" s="21"/>
-      <c r="D123" s="21"/>
+      <c r="B123" s="23"/>
+      <c r="C123" s="23"/>
+      <c r="D123" s="23"/>
       <c r="E123" s="4"/>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
@@ -2850,9 +2843,9 @@
     </row>
     <row r="124" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
-      <c r="B124" s="21"/>
-      <c r="C124" s="21"/>
-      <c r="D124" s="21"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="23"/>
+      <c r="D124" s="23"/>
       <c r="E124" s="4"/>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
@@ -2863,9 +2856,9 @@
     </row>
     <row r="125" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
-      <c r="B125" s="21"/>
-      <c r="C125" s="21"/>
-      <c r="D125" s="21"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="23"/>
+      <c r="D125" s="23"/>
       <c r="E125" s="4"/>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
@@ -2876,9 +2869,9 @@
     </row>
     <row r="126" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
-      <c r="B126" s="21"/>
-      <c r="C126" s="21"/>
-      <c r="D126" s="21"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="23"/>
+      <c r="D126" s="23"/>
       <c r="E126" s="4"/>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
@@ -2889,9 +2882,9 @@
     </row>
     <row r="127" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
-      <c r="B127" s="21"/>
-      <c r="C127" s="21"/>
-      <c r="D127" s="21"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="23"/>
+      <c r="D127" s="23"/>
       <c r="E127" s="4"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
@@ -2902,9 +2895,9 @@
     </row>
     <row r="128" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
-      <c r="B128" s="21"/>
-      <c r="C128" s="21"/>
-      <c r="D128" s="21"/>
+      <c r="B128" s="23"/>
+      <c r="C128" s="23"/>
+      <c r="D128" s="23"/>
       <c r="E128" s="4"/>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
@@ -2915,9 +2908,9 @@
     </row>
     <row r="129" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
-      <c r="B129" s="21"/>
-      <c r="C129" s="21"/>
-      <c r="D129" s="21"/>
+      <c r="B129" s="23"/>
+      <c r="C129" s="23"/>
+      <c r="D129" s="23"/>
       <c r="E129" s="4"/>
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
@@ -2928,9 +2921,9 @@
     </row>
     <row r="130" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
-      <c r="B130" s="21"/>
-      <c r="C130" s="21"/>
-      <c r="D130" s="21"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="23"/>
+      <c r="D130" s="23"/>
       <c r="E130" s="4"/>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
@@ -2941,9 +2934,9 @@
     </row>
     <row r="131" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
-      <c r="B131" s="21"/>
-      <c r="C131" s="21"/>
-      <c r="D131" s="21"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="23"/>
+      <c r="D131" s="23"/>
       <c r="E131" s="4"/>
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
@@ -2954,9 +2947,9 @@
     </row>
     <row r="132" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
-      <c r="B132" s="21"/>
-      <c r="C132" s="21"/>
-      <c r="D132" s="21"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="23"/>
+      <c r="D132" s="23"/>
       <c r="E132" s="4"/>
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
@@ -2967,9 +2960,9 @@
     </row>
     <row r="133" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
-      <c r="B133" s="21"/>
-      <c r="C133" s="21"/>
-      <c r="D133" s="21"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="23"/>
+      <c r="D133" s="23"/>
       <c r="E133" s="4"/>
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
@@ -2980,9 +2973,9 @@
     </row>
     <row r="134" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
-      <c r="B134" s="21"/>
-      <c r="C134" s="21"/>
-      <c r="D134" s="21"/>
+      <c r="B134" s="23"/>
+      <c r="C134" s="23"/>
+      <c r="D134" s="23"/>
       <c r="E134" s="4"/>
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
@@ -2993,9 +2986,9 @@
     </row>
     <row r="135" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
-      <c r="B135" s="21"/>
-      <c r="C135" s="21"/>
-      <c r="D135" s="21"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="23"/>
+      <c r="D135" s="23"/>
       <c r="E135" s="4"/>
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
@@ -3006,9 +2999,9 @@
     </row>
     <row r="136" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
-      <c r="B136" s="21"/>
-      <c r="C136" s="21"/>
-      <c r="D136" s="21"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="23"/>
+      <c r="D136" s="23"/>
       <c r="E136" s="4"/>
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
@@ -3019,9 +3012,9 @@
     </row>
     <row r="137" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
-      <c r="B137" s="21"/>
-      <c r="C137" s="21"/>
-      <c r="D137" s="21"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="23"/>
+      <c r="D137" s="23"/>
       <c r="E137" s="4"/>
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
@@ -3032,9 +3025,9 @@
     </row>
     <row r="138" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
-      <c r="B138" s="21"/>
-      <c r="C138" s="21"/>
-      <c r="D138" s="21"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="23"/>
+      <c r="D138" s="23"/>
       <c r="E138" s="4"/>
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
@@ -3045,9 +3038,9 @@
     </row>
     <row r="139" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
-      <c r="B139" s="21"/>
-      <c r="C139" s="21"/>
-      <c r="D139" s="21"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
+      <c r="D139" s="23"/>
       <c r="E139" s="4"/>
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
@@ -3058,9 +3051,9 @@
     </row>
     <row r="140" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
-      <c r="B140" s="21"/>
-      <c r="C140" s="21"/>
-      <c r="D140" s="21"/>
+      <c r="B140" s="23"/>
+      <c r="C140" s="23"/>
+      <c r="D140" s="23"/>
       <c r="E140" s="4"/>
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
@@ -3071,9 +3064,9 @@
     </row>
     <row r="141" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
-      <c r="B141" s="21"/>
-      <c r="C141" s="21"/>
-      <c r="D141" s="21"/>
+      <c r="B141" s="23"/>
+      <c r="C141" s="23"/>
+      <c r="D141" s="23"/>
       <c r="E141" s="4"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
@@ -3084,9 +3077,9 @@
     </row>
     <row r="142" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
-      <c r="B142" s="21"/>
-      <c r="C142" s="21"/>
-      <c r="D142" s="21"/>
+      <c r="B142" s="23"/>
+      <c r="C142" s="23"/>
+      <c r="D142" s="23"/>
       <c r="E142" s="4"/>
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
@@ -3097,9 +3090,9 @@
     </row>
     <row r="143" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
-      <c r="B143" s="21"/>
-      <c r="C143" s="21"/>
-      <c r="D143" s="21"/>
+      <c r="B143" s="23"/>
+      <c r="C143" s="23"/>
+      <c r="D143" s="23"/>
       <c r="E143" s="4"/>
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
@@ -3110,9 +3103,9 @@
     </row>
     <row r="144" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
-      <c r="B144" s="21"/>
-      <c r="C144" s="21"/>
-      <c r="D144" s="21"/>
+      <c r="B144" s="23"/>
+      <c r="C144" s="23"/>
+      <c r="D144" s="23"/>
       <c r="E144" s="4"/>
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
@@ -3123,9 +3116,9 @@
     </row>
     <row r="145" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
-      <c r="B145" s="21"/>
-      <c r="C145" s="21"/>
-      <c r="D145" s="21"/>
+      <c r="B145" s="23"/>
+      <c r="C145" s="23"/>
+      <c r="D145" s="23"/>
       <c r="E145" s="4"/>
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
@@ -3136,9 +3129,9 @@
     </row>
     <row r="146" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
-      <c r="B146" s="21"/>
-      <c r="C146" s="21"/>
-      <c r="D146" s="21"/>
+      <c r="B146" s="23"/>
+      <c r="C146" s="23"/>
+      <c r="D146" s="23"/>
       <c r="E146" s="4"/>
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
@@ -3149,9 +3142,9 @@
     </row>
     <row r="147" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
-      <c r="B147" s="21"/>
-      <c r="C147" s="21"/>
-      <c r="D147" s="21"/>
+      <c r="B147" s="23"/>
+      <c r="C147" s="23"/>
+      <c r="D147" s="23"/>
       <c r="E147" s="4"/>
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
@@ -3162,9 +3155,9 @@
     </row>
     <row r="148" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
-      <c r="B148" s="21"/>
-      <c r="C148" s="21"/>
-      <c r="D148" s="21"/>
+      <c r="B148" s="23"/>
+      <c r="C148" s="23"/>
+      <c r="D148" s="23"/>
       <c r="E148" s="4"/>
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
@@ -3175,9 +3168,9 @@
     </row>
     <row r="149" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
-      <c r="B149" s="21"/>
-      <c r="C149" s="21"/>
-      <c r="D149" s="21"/>
+      <c r="B149" s="23"/>
+      <c r="C149" s="23"/>
+      <c r="D149" s="23"/>
       <c r="E149" s="4"/>
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
@@ -3188,9 +3181,9 @@
     </row>
     <row r="150" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
-      <c r="B150" s="21"/>
-      <c r="C150" s="21"/>
-      <c r="D150" s="21"/>
+      <c r="B150" s="23"/>
+      <c r="C150" s="23"/>
+      <c r="D150" s="23"/>
       <c r="E150" s="4"/>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
@@ -3201,9 +3194,9 @@
     </row>
     <row r="151" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
-      <c r="B151" s="21"/>
-      <c r="C151" s="21"/>
-      <c r="D151" s="21"/>
+      <c r="B151" s="23"/>
+      <c r="C151" s="23"/>
+      <c r="D151" s="23"/>
       <c r="E151" s="4"/>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
@@ -3214,9 +3207,9 @@
     </row>
     <row r="152" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
-      <c r="B152" s="21"/>
-      <c r="C152" s="21"/>
-      <c r="D152" s="21"/>
+      <c r="B152" s="23"/>
+      <c r="C152" s="23"/>
+      <c r="D152" s="23"/>
       <c r="E152" s="4"/>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
@@ -3227,9 +3220,9 @@
     </row>
     <row r="153" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
-      <c r="B153" s="21"/>
-      <c r="C153" s="21"/>
-      <c r="D153" s="21"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="23"/>
+      <c r="D153" s="23"/>
       <c r="E153" s="4"/>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
@@ -3240,9 +3233,9 @@
     </row>
     <row r="154" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
-      <c r="B154" s="21"/>
-      <c r="C154" s="21"/>
-      <c r="D154" s="21"/>
+      <c r="B154" s="23"/>
+      <c r="C154" s="23"/>
+      <c r="D154" s="23"/>
       <c r="E154" s="4"/>
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
@@ -3253,9 +3246,9 @@
     </row>
     <row r="155" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
-      <c r="B155" s="21"/>
-      <c r="C155" s="21"/>
-      <c r="D155" s="21"/>
+      <c r="B155" s="23"/>
+      <c r="C155" s="23"/>
+      <c r="D155" s="23"/>
       <c r="E155" s="4"/>
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
@@ -3266,9 +3259,9 @@
     </row>
     <row r="156" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
-      <c r="B156" s="21"/>
-      <c r="C156" s="21"/>
-      <c r="D156" s="21"/>
+      <c r="B156" s="23"/>
+      <c r="C156" s="23"/>
+      <c r="D156" s="23"/>
       <c r="E156" s="4"/>
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
@@ -3279,9 +3272,9 @@
     </row>
     <row r="157" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
-      <c r="B157" s="21"/>
-      <c r="C157" s="21"/>
-      <c r="D157" s="21"/>
+      <c r="B157" s="23"/>
+      <c r="C157" s="23"/>
+      <c r="D157" s="23"/>
       <c r="E157" s="4"/>
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
@@ -3292,9 +3285,9 @@
     </row>
     <row r="158" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
-      <c r="B158" s="21"/>
-      <c r="C158" s="21"/>
-      <c r="D158" s="21"/>
+      <c r="B158" s="23"/>
+      <c r="C158" s="23"/>
+      <c r="D158" s="23"/>
       <c r="E158" s="4"/>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
@@ -3305,9 +3298,9 @@
     </row>
     <row r="159" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
-      <c r="B159" s="21"/>
-      <c r="C159" s="21"/>
-      <c r="D159" s="21"/>
+      <c r="B159" s="23"/>
+      <c r="C159" s="23"/>
+      <c r="D159" s="23"/>
       <c r="E159" s="4"/>
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
@@ -3318,9 +3311,9 @@
     </row>
     <row r="160" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
-      <c r="B160" s="21"/>
-      <c r="C160" s="21"/>
-      <c r="D160" s="21"/>
+      <c r="B160" s="23"/>
+      <c r="C160" s="23"/>
+      <c r="D160" s="23"/>
       <c r="E160" s="4"/>
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
@@ -3331,9 +3324,9 @@
     </row>
     <row r="161" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
-      <c r="B161" s="21"/>
-      <c r="C161" s="21"/>
-      <c r="D161" s="21"/>
+      <c r="B161" s="23"/>
+      <c r="C161" s="23"/>
+      <c r="D161" s="23"/>
       <c r="E161" s="4"/>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
@@ -3344,9 +3337,9 @@
     </row>
     <row r="162" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
-      <c r="B162" s="21"/>
-      <c r="C162" s="21"/>
-      <c r="D162" s="21"/>
+      <c r="B162" s="23"/>
+      <c r="C162" s="23"/>
+      <c r="D162" s="23"/>
       <c r="E162" s="4"/>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
@@ -3357,9 +3350,9 @@
     </row>
     <row r="163" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
-      <c r="B163" s="21"/>
-      <c r="C163" s="21"/>
-      <c r="D163" s="21"/>
+      <c r="B163" s="23"/>
+      <c r="C163" s="23"/>
+      <c r="D163" s="23"/>
       <c r="E163" s="4"/>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
@@ -3370,9 +3363,9 @@
     </row>
     <row r="164" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
-      <c r="B164" s="21"/>
-      <c r="C164" s="21"/>
-      <c r="D164" s="21"/>
+      <c r="B164" s="23"/>
+      <c r="C164" s="23"/>
+      <c r="D164" s="23"/>
       <c r="E164" s="4"/>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
@@ -3383,9 +3376,9 @@
     </row>
     <row r="165" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
-      <c r="B165" s="21"/>
-      <c r="C165" s="21"/>
-      <c r="D165" s="21"/>
+      <c r="B165" s="23"/>
+      <c r="C165" s="23"/>
+      <c r="D165" s="23"/>
       <c r="E165" s="4"/>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
@@ -3396,9 +3389,9 @@
     </row>
     <row r="166" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
-      <c r="B166" s="21"/>
-      <c r="C166" s="21"/>
-      <c r="D166" s="21"/>
+      <c r="B166" s="23"/>
+      <c r="C166" s="23"/>
+      <c r="D166" s="23"/>
       <c r="E166" s="4"/>
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
@@ -3409,9 +3402,9 @@
     </row>
     <row r="167" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
-      <c r="B167" s="21"/>
-      <c r="C167" s="21"/>
-      <c r="D167" s="21"/>
+      <c r="B167" s="23"/>
+      <c r="C167" s="23"/>
+      <c r="D167" s="23"/>
       <c r="E167" s="4"/>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
@@ -3422,9 +3415,9 @@
     </row>
     <row r="168" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
-      <c r="B168" s="21"/>
-      <c r="C168" s="21"/>
-      <c r="D168" s="21"/>
+      <c r="B168" s="23"/>
+      <c r="C168" s="23"/>
+      <c r="D168" s="23"/>
       <c r="E168" s="4"/>
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
@@ -3435,9 +3428,9 @@
     </row>
     <row r="169" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
-      <c r="B169" s="21"/>
-      <c r="C169" s="21"/>
-      <c r="D169" s="21"/>
+      <c r="B169" s="23"/>
+      <c r="C169" s="23"/>
+      <c r="D169" s="23"/>
       <c r="E169" s="4"/>
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
@@ -3448,9 +3441,9 @@
     </row>
     <row r="170" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
-      <c r="B170" s="21"/>
-      <c r="C170" s="21"/>
-      <c r="D170" s="21"/>
+      <c r="B170" s="23"/>
+      <c r="C170" s="23"/>
+      <c r="D170" s="23"/>
       <c r="E170" s="4"/>
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
@@ -3461,9 +3454,9 @@
     </row>
     <row r="171" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
-      <c r="B171" s="21"/>
-      <c r="C171" s="21"/>
-      <c r="D171" s="21"/>
+      <c r="B171" s="23"/>
+      <c r="C171" s="23"/>
+      <c r="D171" s="23"/>
       <c r="E171" s="4"/>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
@@ -3474,9 +3467,9 @@
     </row>
     <row r="172" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
-      <c r="B172" s="21"/>
-      <c r="C172" s="21"/>
-      <c r="D172" s="21"/>
+      <c r="B172" s="23"/>
+      <c r="C172" s="23"/>
+      <c r="D172" s="23"/>
       <c r="E172" s="4"/>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
@@ -3487,9 +3480,9 @@
     </row>
     <row r="173" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
-      <c r="B173" s="21"/>
-      <c r="C173" s="21"/>
-      <c r="D173" s="21"/>
+      <c r="B173" s="23"/>
+      <c r="C173" s="23"/>
+      <c r="D173" s="23"/>
       <c r="E173" s="4"/>
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
@@ -3500,9 +3493,9 @@
     </row>
     <row r="174" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
-      <c r="B174" s="21"/>
-      <c r="C174" s="21"/>
-      <c r="D174" s="21"/>
+      <c r="B174" s="23"/>
+      <c r="C174" s="23"/>
+      <c r="D174" s="23"/>
       <c r="E174" s="4"/>
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
@@ -3513,9 +3506,9 @@
     </row>
     <row r="175" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
-      <c r="B175" s="21"/>
-      <c r="C175" s="21"/>
-      <c r="D175" s="21"/>
+      <c r="B175" s="23"/>
+      <c r="C175" s="23"/>
+      <c r="D175" s="23"/>
       <c r="E175" s="4"/>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
@@ -3526,9 +3519,9 @@
     </row>
     <row r="176" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
-      <c r="B176" s="21"/>
-      <c r="C176" s="21"/>
-      <c r="D176" s="21"/>
+      <c r="B176" s="23"/>
+      <c r="C176" s="23"/>
+      <c r="D176" s="23"/>
       <c r="E176" s="4"/>
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
@@ -3539,9 +3532,9 @@
     </row>
     <row r="177" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
-      <c r="B177" s="21"/>
-      <c r="C177" s="21"/>
-      <c r="D177" s="21"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="23"/>
+      <c r="D177" s="23"/>
       <c r="E177" s="4"/>
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
@@ -3552,9 +3545,9 @@
     </row>
     <row r="178" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
-      <c r="B178" s="21"/>
-      <c r="C178" s="21"/>
-      <c r="D178" s="21"/>
+      <c r="B178" s="23"/>
+      <c r="C178" s="23"/>
+      <c r="D178" s="23"/>
       <c r="E178" s="4"/>
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
@@ -3565,9 +3558,9 @@
     </row>
     <row r="179" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
-      <c r="B179" s="21"/>
-      <c r="C179" s="21"/>
-      <c r="D179" s="21"/>
+      <c r="B179" s="23"/>
+      <c r="C179" s="23"/>
+      <c r="D179" s="23"/>
       <c r="E179" s="4"/>
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
@@ -3578,9 +3571,9 @@
     </row>
     <row r="180" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
-      <c r="B180" s="21"/>
-      <c r="C180" s="21"/>
-      <c r="D180" s="21"/>
+      <c r="B180" s="23"/>
+      <c r="C180" s="23"/>
+      <c r="D180" s="23"/>
       <c r="E180" s="4"/>
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
@@ -3591,9 +3584,9 @@
     </row>
     <row r="181" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
-      <c r="B181" s="21"/>
-      <c r="C181" s="21"/>
-      <c r="D181" s="21"/>
+      <c r="B181" s="23"/>
+      <c r="C181" s="23"/>
+      <c r="D181" s="23"/>
       <c r="E181" s="4"/>
       <c r="F181" s="5"/>
       <c r="G181" s="5"/>
@@ -3604,9 +3597,9 @@
     </row>
     <row r="182" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
-      <c r="B182" s="21"/>
-      <c r="C182" s="21"/>
-      <c r="D182" s="21"/>
+      <c r="B182" s="23"/>
+      <c r="C182" s="23"/>
+      <c r="D182" s="23"/>
       <c r="E182" s="4"/>
       <c r="F182" s="5"/>
       <c r="G182" s="5"/>
@@ -3617,9 +3610,9 @@
     </row>
     <row r="183" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
-      <c r="B183" s="21"/>
-      <c r="C183" s="21"/>
-      <c r="D183" s="21"/>
+      <c r="B183" s="23"/>
+      <c r="C183" s="23"/>
+      <c r="D183" s="23"/>
       <c r="E183" s="4"/>
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
@@ -3630,9 +3623,9 @@
     </row>
     <row r="184" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
-      <c r="B184" s="21"/>
-      <c r="C184" s="21"/>
-      <c r="D184" s="21"/>
+      <c r="B184" s="23"/>
+      <c r="C184" s="23"/>
+      <c r="D184" s="23"/>
       <c r="E184" s="4"/>
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
@@ -3643,9 +3636,9 @@
     </row>
     <row r="185" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
-      <c r="B185" s="21"/>
-      <c r="C185" s="21"/>
-      <c r="D185" s="21"/>
+      <c r="B185" s="23"/>
+      <c r="C185" s="23"/>
+      <c r="D185" s="23"/>
       <c r="E185" s="4"/>
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
@@ -3656,9 +3649,9 @@
     </row>
     <row r="186" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
-      <c r="B186" s="21"/>
-      <c r="C186" s="21"/>
-      <c r="D186" s="21"/>
+      <c r="B186" s="23"/>
+      <c r="C186" s="23"/>
+      <c r="D186" s="23"/>
       <c r="E186" s="4"/>
       <c r="F186" s="5"/>
       <c r="G186" s="5"/>
@@ -3669,9 +3662,9 @@
     </row>
     <row r="187" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
-      <c r="B187" s="21"/>
-      <c r="C187" s="21"/>
-      <c r="D187" s="21"/>
+      <c r="B187" s="23"/>
+      <c r="C187" s="23"/>
+      <c r="D187" s="23"/>
       <c r="E187" s="4"/>
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
@@ -3682,9 +3675,9 @@
     </row>
     <row r="188" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
-      <c r="B188" s="21"/>
-      <c r="C188" s="21"/>
-      <c r="D188" s="21"/>
+      <c r="B188" s="23"/>
+      <c r="C188" s="23"/>
+      <c r="D188" s="23"/>
       <c r="E188" s="4"/>
       <c r="F188" s="5"/>
       <c r="G188" s="5"/>
@@ -3695,9 +3688,9 @@
     </row>
     <row r="189" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
-      <c r="B189" s="21"/>
-      <c r="C189" s="21"/>
-      <c r="D189" s="21"/>
+      <c r="B189" s="23"/>
+      <c r="C189" s="23"/>
+      <c r="D189" s="23"/>
       <c r="E189" s="4"/>
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
@@ -3708,9 +3701,9 @@
     </row>
     <row r="190" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
-      <c r="B190" s="21"/>
-      <c r="C190" s="21"/>
-      <c r="D190" s="21"/>
+      <c r="B190" s="23"/>
+      <c r="C190" s="23"/>
+      <c r="D190" s="23"/>
       <c r="E190" s="4"/>
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
@@ -3721,9 +3714,9 @@
     </row>
     <row r="191" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
-      <c r="B191" s="21"/>
-      <c r="C191" s="21"/>
-      <c r="D191" s="21"/>
+      <c r="B191" s="23"/>
+      <c r="C191" s="23"/>
+      <c r="D191" s="23"/>
       <c r="E191" s="4"/>
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
@@ -3734,9 +3727,9 @@
     </row>
     <row r="192" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
-      <c r="B192" s="21"/>
-      <c r="C192" s="21"/>
-      <c r="D192" s="21"/>
+      <c r="B192" s="23"/>
+      <c r="C192" s="23"/>
+      <c r="D192" s="23"/>
       <c r="E192" s="4"/>
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
@@ -3747,9 +3740,9 @@
     </row>
     <row r="193" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
-      <c r="B193" s="21"/>
-      <c r="C193" s="21"/>
-      <c r="D193" s="21"/>
+      <c r="B193" s="23"/>
+      <c r="C193" s="23"/>
+      <c r="D193" s="23"/>
       <c r="E193" s="4"/>
       <c r="F193" s="5"/>
       <c r="G193" s="5"/>
@@ -3760,9 +3753,9 @@
     </row>
     <row r="194" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
-      <c r="B194" s="21"/>
-      <c r="C194" s="21"/>
-      <c r="D194" s="21"/>
+      <c r="B194" s="23"/>
+      <c r="C194" s="23"/>
+      <c r="D194" s="23"/>
       <c r="E194" s="4"/>
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
@@ -3773,9 +3766,9 @@
     </row>
     <row r="195" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
-      <c r="B195" s="21"/>
-      <c r="C195" s="21"/>
-      <c r="D195" s="21"/>
+      <c r="B195" s="23"/>
+      <c r="C195" s="23"/>
+      <c r="D195" s="23"/>
       <c r="E195" s="4"/>
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
@@ -3786,9 +3779,9 @@
     </row>
     <row r="196" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
-      <c r="B196" s="21"/>
-      <c r="C196" s="21"/>
-      <c r="D196" s="21"/>
+      <c r="B196" s="23"/>
+      <c r="C196" s="23"/>
+      <c r="D196" s="23"/>
       <c r="E196" s="4"/>
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
@@ -3799,9 +3792,9 @@
     </row>
     <row r="197" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
-      <c r="B197" s="21"/>
-      <c r="C197" s="21"/>
-      <c r="D197" s="21"/>
+      <c r="B197" s="23"/>
+      <c r="C197" s="23"/>
+      <c r="D197" s="23"/>
       <c r="E197" s="4"/>
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
@@ -3812,9 +3805,9 @@
     </row>
     <row r="198" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
-      <c r="B198" s="21"/>
-      <c r="C198" s="21"/>
-      <c r="D198" s="21"/>
+      <c r="B198" s="23"/>
+      <c r="C198" s="23"/>
+      <c r="D198" s="23"/>
       <c r="E198" s="4"/>
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
@@ -3825,9 +3818,9 @@
     </row>
     <row r="199" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
-      <c r="B199" s="21"/>
-      <c r="C199" s="21"/>
-      <c r="D199" s="21"/>
+      <c r="B199" s="23"/>
+      <c r="C199" s="23"/>
+      <c r="D199" s="23"/>
       <c r="E199" s="4"/>
       <c r="F199" s="5"/>
       <c r="G199" s="5"/>
@@ -3838,9 +3831,9 @@
     </row>
     <row r="200" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
-      <c r="B200" s="21"/>
-      <c r="C200" s="21"/>
-      <c r="D200" s="21"/>
+      <c r="B200" s="23"/>
+      <c r="C200" s="23"/>
+      <c r="D200" s="23"/>
       <c r="E200" s="4"/>
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
@@ -3851,9 +3844,9 @@
     </row>
     <row r="201" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
-      <c r="B201" s="21"/>
-      <c r="C201" s="21"/>
-      <c r="D201" s="21"/>
+      <c r="B201" s="23"/>
+      <c r="C201" s="23"/>
+      <c r="D201" s="23"/>
       <c r="E201" s="4"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
@@ -3864,9 +3857,9 @@
     </row>
     <row r="202" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
-      <c r="B202" s="21"/>
-      <c r="C202" s="21"/>
-      <c r="D202" s="21"/>
+      <c r="B202" s="23"/>
+      <c r="C202" s="23"/>
+      <c r="D202" s="23"/>
       <c r="E202" s="4"/>
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
@@ -3877,9 +3870,9 @@
     </row>
     <row r="203" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
-      <c r="B203" s="21"/>
-      <c r="C203" s="21"/>
-      <c r="D203" s="21"/>
+      <c r="B203" s="23"/>
+      <c r="C203" s="23"/>
+      <c r="D203" s="23"/>
       <c r="E203" s="4"/>
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
@@ -3890,9 +3883,9 @@
     </row>
     <row r="204" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
-      <c r="B204" s="21"/>
-      <c r="C204" s="21"/>
-      <c r="D204" s="21"/>
+      <c r="B204" s="23"/>
+      <c r="C204" s="23"/>
+      <c r="D204" s="23"/>
       <c r="E204" s="4"/>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
@@ -3903,9 +3896,9 @@
     </row>
     <row r="205" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
-      <c r="B205" s="21"/>
-      <c r="C205" s="21"/>
-      <c r="D205" s="21"/>
+      <c r="B205" s="23"/>
+      <c r="C205" s="23"/>
+      <c r="D205" s="23"/>
       <c r="E205" s="4"/>
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
@@ -3916,9 +3909,9 @@
     </row>
     <row r="206" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
-      <c r="B206" s="21"/>
-      <c r="C206" s="21"/>
-      <c r="D206" s="21"/>
+      <c r="B206" s="23"/>
+      <c r="C206" s="23"/>
+      <c r="D206" s="23"/>
       <c r="E206" s="4"/>
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
@@ -3929,9 +3922,9 @@
     </row>
     <row r="207" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
-      <c r="B207" s="21"/>
-      <c r="C207" s="21"/>
-      <c r="D207" s="21"/>
+      <c r="B207" s="23"/>
+      <c r="C207" s="23"/>
+      <c r="D207" s="23"/>
       <c r="E207" s="4"/>
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
@@ -3942,9 +3935,9 @@
     </row>
     <row r="208" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
-      <c r="B208" s="21"/>
-      <c r="C208" s="21"/>
-      <c r="D208" s="21"/>
+      <c r="B208" s="23"/>
+      <c r="C208" s="23"/>
+      <c r="D208" s="23"/>
       <c r="E208" s="4"/>
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
@@ -3955,9 +3948,9 @@
     </row>
     <row r="209" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
-      <c r="B209" s="21"/>
-      <c r="C209" s="21"/>
-      <c r="D209" s="21"/>
+      <c r="B209" s="23"/>
+      <c r="C209" s="23"/>
+      <c r="D209" s="23"/>
       <c r="E209" s="4"/>
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
@@ -3968,9 +3961,9 @@
     </row>
     <row r="210" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
-      <c r="B210" s="21"/>
-      <c r="C210" s="21"/>
-      <c r="D210" s="21"/>
+      <c r="B210" s="23"/>
+      <c r="C210" s="23"/>
+      <c r="D210" s="23"/>
       <c r="E210" s="4"/>
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
@@ -3981,9 +3974,9 @@
     </row>
     <row r="211" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
-      <c r="B211" s="21"/>
-      <c r="C211" s="21"/>
-      <c r="D211" s="21"/>
+      <c r="B211" s="23"/>
+      <c r="C211" s="23"/>
+      <c r="D211" s="23"/>
       <c r="E211" s="4"/>
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
@@ -3994,9 +3987,9 @@
     </row>
     <row r="212" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
-      <c r="B212" s="21"/>
-      <c r="C212" s="21"/>
-      <c r="D212" s="21"/>
+      <c r="B212" s="23"/>
+      <c r="C212" s="23"/>
+      <c r="D212" s="23"/>
       <c r="E212" s="4"/>
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
@@ -4007,9 +4000,9 @@
     </row>
     <row r="213" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
-      <c r="B213" s="21"/>
-      <c r="C213" s="21"/>
-      <c r="D213" s="21"/>
+      <c r="B213" s="23"/>
+      <c r="C213" s="23"/>
+      <c r="D213" s="23"/>
       <c r="E213" s="4"/>
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
@@ -4020,9 +4013,9 @@
     </row>
     <row r="214" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
-      <c r="B214" s="21"/>
-      <c r="C214" s="21"/>
-      <c r="D214" s="21"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="23"/>
+      <c r="D214" s="23"/>
       <c r="E214" s="4"/>
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
@@ -4033,9 +4026,9 @@
     </row>
     <row r="215" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
-      <c r="B215" s="21"/>
-      <c r="C215" s="21"/>
-      <c r="D215" s="21"/>
+      <c r="B215" s="23"/>
+      <c r="C215" s="23"/>
+      <c r="D215" s="23"/>
       <c r="E215" s="4"/>
       <c r="F215" s="5"/>
       <c r="G215" s="5"/>
@@ -4046,9 +4039,9 @@
     </row>
     <row r="216" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
-      <c r="B216" s="21"/>
-      <c r="C216" s="21"/>
-      <c r="D216" s="21"/>
+      <c r="B216" s="23"/>
+      <c r="C216" s="23"/>
+      <c r="D216" s="23"/>
       <c r="E216" s="4"/>
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
@@ -4059,9 +4052,9 @@
     </row>
     <row r="217" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
-      <c r="B217" s="21"/>
-      <c r="C217" s="21"/>
-      <c r="D217" s="21"/>
+      <c r="B217" s="23"/>
+      <c r="C217" s="23"/>
+      <c r="D217" s="23"/>
       <c r="E217" s="4"/>
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
@@ -4072,9 +4065,9 @@
     </row>
     <row r="218" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
-      <c r="B218" s="21"/>
-      <c r="C218" s="21"/>
-      <c r="D218" s="21"/>
+      <c r="B218" s="23"/>
+      <c r="C218" s="23"/>
+      <c r="D218" s="23"/>
       <c r="E218" s="4"/>
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
@@ -4085,9 +4078,9 @@
     </row>
     <row r="219" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
-      <c r="B219" s="21"/>
-      <c r="C219" s="21"/>
-      <c r="D219" s="21"/>
+      <c r="B219" s="23"/>
+      <c r="C219" s="23"/>
+      <c r="D219" s="23"/>
       <c r="E219" s="4"/>
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
@@ -4098,9 +4091,9 @@
     </row>
     <row r="220" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
-      <c r="B220" s="21"/>
-      <c r="C220" s="21"/>
-      <c r="D220" s="21"/>
+      <c r="B220" s="23"/>
+      <c r="C220" s="23"/>
+      <c r="D220" s="23"/>
       <c r="E220" s="4"/>
       <c r="F220" s="5"/>
       <c r="G220" s="5"/>
@@ -4111,9 +4104,9 @@
     </row>
     <row r="221" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
-      <c r="B221" s="21"/>
-      <c r="C221" s="21"/>
-      <c r="D221" s="21"/>
+      <c r="B221" s="23"/>
+      <c r="C221" s="23"/>
+      <c r="D221" s="23"/>
       <c r="E221" s="4"/>
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
@@ -4124,9 +4117,9 @@
     </row>
     <row r="222" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
-      <c r="B222" s="21"/>
-      <c r="C222" s="21"/>
-      <c r="D222" s="21"/>
+      <c r="B222" s="23"/>
+      <c r="C222" s="23"/>
+      <c r="D222" s="23"/>
       <c r="E222" s="4"/>
       <c r="F222" s="5"/>
       <c r="G222" s="5"/>
@@ -4137,9 +4130,9 @@
     </row>
     <row r="223" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
-      <c r="B223" s="21"/>
-      <c r="C223" s="21"/>
-      <c r="D223" s="21"/>
+      <c r="B223" s="23"/>
+      <c r="C223" s="23"/>
+      <c r="D223" s="23"/>
       <c r="E223" s="4"/>
       <c r="F223" s="5"/>
       <c r="G223" s="5"/>
@@ -4150,9 +4143,9 @@
     </row>
     <row r="224" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
-      <c r="B224" s="21"/>
-      <c r="C224" s="21"/>
-      <c r="D224" s="21"/>
+      <c r="B224" s="23"/>
+      <c r="C224" s="23"/>
+      <c r="D224" s="23"/>
       <c r="E224" s="4"/>
       <c r="F224" s="5"/>
       <c r="G224" s="5"/>
@@ -4163,9 +4156,9 @@
     </row>
     <row r="225" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
-      <c r="B225" s="21"/>
-      <c r="C225" s="21"/>
-      <c r="D225" s="21"/>
+      <c r="B225" s="23"/>
+      <c r="C225" s="23"/>
+      <c r="D225" s="23"/>
       <c r="E225" s="4"/>
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
@@ -4176,9 +4169,9 @@
     </row>
     <row r="226" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
-      <c r="B226" s="21"/>
-      <c r="C226" s="21"/>
-      <c r="D226" s="21"/>
+      <c r="B226" s="23"/>
+      <c r="C226" s="23"/>
+      <c r="D226" s="23"/>
       <c r="E226" s="4"/>
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
@@ -4189,9 +4182,9 @@
     </row>
     <row r="227" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
-      <c r="B227" s="21"/>
-      <c r="C227" s="21"/>
-      <c r="D227" s="21"/>
+      <c r="B227" s="23"/>
+      <c r="C227" s="23"/>
+      <c r="D227" s="23"/>
       <c r="E227" s="4"/>
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
@@ -4202,9 +4195,9 @@
     </row>
     <row r="228" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
-      <c r="B228" s="21"/>
-      <c r="C228" s="21"/>
-      <c r="D228" s="21"/>
+      <c r="B228" s="23"/>
+      <c r="C228" s="23"/>
+      <c r="D228" s="23"/>
       <c r="E228" s="4"/>
       <c r="F228" s="5"/>
       <c r="G228" s="5"/>
@@ -4215,9 +4208,9 @@
     </row>
     <row r="229" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
-      <c r="B229" s="21"/>
-      <c r="C229" s="21"/>
-      <c r="D229" s="21"/>
+      <c r="B229" s="23"/>
+      <c r="C229" s="23"/>
+      <c r="D229" s="23"/>
       <c r="E229" s="4"/>
       <c r="F229" s="5"/>
       <c r="G229" s="5"/>
@@ -4228,9 +4221,9 @@
     </row>
     <row r="230" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
-      <c r="B230" s="21"/>
-      <c r="C230" s="21"/>
-      <c r="D230" s="21"/>
+      <c r="B230" s="23"/>
+      <c r="C230" s="23"/>
+      <c r="D230" s="23"/>
       <c r="E230" s="4"/>
       <c r="F230" s="5"/>
       <c r="G230" s="5"/>
@@ -4241,9 +4234,9 @@
     </row>
     <row r="231" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
-      <c r="B231" s="21"/>
-      <c r="C231" s="21"/>
-      <c r="D231" s="21"/>
+      <c r="B231" s="23"/>
+      <c r="C231" s="23"/>
+      <c r="D231" s="23"/>
       <c r="E231" s="4"/>
       <c r="F231" s="5"/>
       <c r="G231" s="5"/>
@@ -4254,9 +4247,9 @@
     </row>
     <row r="232" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
-      <c r="B232" s="21"/>
-      <c r="C232" s="21"/>
-      <c r="D232" s="21"/>
+      <c r="B232" s="23"/>
+      <c r="C232" s="23"/>
+      <c r="D232" s="23"/>
       <c r="E232" s="4"/>
       <c r="F232" s="5"/>
       <c r="G232" s="5"/>
@@ -4267,9 +4260,9 @@
     </row>
     <row r="233" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
-      <c r="B233" s="21"/>
-      <c r="C233" s="21"/>
-      <c r="D233" s="21"/>
+      <c r="B233" s="23"/>
+      <c r="C233" s="23"/>
+      <c r="D233" s="23"/>
       <c r="E233" s="4"/>
       <c r="F233" s="5"/>
       <c r="G233" s="5"/>
@@ -4280,9 +4273,9 @@
     </row>
     <row r="234" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
-      <c r="B234" s="21"/>
-      <c r="C234" s="21"/>
-      <c r="D234" s="21"/>
+      <c r="B234" s="23"/>
+      <c r="C234" s="23"/>
+      <c r="D234" s="23"/>
       <c r="E234" s="4"/>
       <c r="F234" s="5"/>
       <c r="G234" s="5"/>
@@ -4293,9 +4286,9 @@
     </row>
     <row r="235" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
-      <c r="B235" s="21"/>
-      <c r="C235" s="21"/>
-      <c r="D235" s="21"/>
+      <c r="B235" s="23"/>
+      <c r="C235" s="23"/>
+      <c r="D235" s="23"/>
       <c r="E235" s="4"/>
       <c r="F235" s="5"/>
       <c r="G235" s="5"/>
@@ -4306,9 +4299,9 @@
     </row>
     <row r="236" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
-      <c r="B236" s="21"/>
-      <c r="C236" s="21"/>
-      <c r="D236" s="21"/>
+      <c r="B236" s="23"/>
+      <c r="C236" s="23"/>
+      <c r="D236" s="23"/>
       <c r="E236" s="4"/>
       <c r="F236" s="5"/>
       <c r="G236" s="5"/>
@@ -4319,9 +4312,9 @@
     </row>
     <row r="237" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
-      <c r="B237" s="21"/>
-      <c r="C237" s="21"/>
-      <c r="D237" s="21"/>
+      <c r="B237" s="23"/>
+      <c r="C237" s="23"/>
+      <c r="D237" s="23"/>
       <c r="E237" s="4"/>
       <c r="F237" s="5"/>
       <c r="G237" s="5"/>
@@ -4332,9 +4325,9 @@
     </row>
     <row r="238" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
-      <c r="B238" s="21"/>
-      <c r="C238" s="21"/>
-      <c r="D238" s="21"/>
+      <c r="B238" s="23"/>
+      <c r="C238" s="23"/>
+      <c r="D238" s="23"/>
       <c r="E238" s="4"/>
       <c r="F238" s="5"/>
       <c r="G238" s="5"/>
@@ -4345,9 +4338,9 @@
     </row>
     <row r="239" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
-      <c r="B239" s="21"/>
-      <c r="C239" s="21"/>
-      <c r="D239" s="21"/>
+      <c r="B239" s="23"/>
+      <c r="C239" s="23"/>
+      <c r="D239" s="23"/>
       <c r="E239" s="4"/>
       <c r="F239" s="5"/>
       <c r="G239" s="5"/>
@@ -4358,9 +4351,9 @@
     </row>
     <row r="240" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
-      <c r="B240" s="21"/>
-      <c r="C240" s="21"/>
-      <c r="D240" s="21"/>
+      <c r="B240" s="23"/>
+      <c r="C240" s="23"/>
+      <c r="D240" s="23"/>
       <c r="E240" s="4"/>
       <c r="F240" s="5"/>
       <c r="G240" s="5"/>
@@ -4371,9 +4364,9 @@
     </row>
     <row r="241" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
-      <c r="B241" s="21"/>
-      <c r="C241" s="21"/>
-      <c r="D241" s="21"/>
+      <c r="B241" s="23"/>
+      <c r="C241" s="23"/>
+      <c r="D241" s="23"/>
       <c r="E241" s="4"/>
       <c r="F241" s="5"/>
       <c r="G241" s="5"/>
@@ -4384,9 +4377,9 @@
     </row>
     <row r="242" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
-      <c r="B242" s="21"/>
-      <c r="C242" s="21"/>
-      <c r="D242" s="21"/>
+      <c r="B242" s="23"/>
+      <c r="C242" s="23"/>
+      <c r="D242" s="23"/>
       <c r="E242" s="4"/>
       <c r="F242" s="5"/>
       <c r="G242" s="5"/>
@@ -4397,9 +4390,9 @@
     </row>
     <row r="243" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
-      <c r="B243" s="21"/>
-      <c r="C243" s="21"/>
-      <c r="D243" s="21"/>
+      <c r="B243" s="23"/>
+      <c r="C243" s="23"/>
+      <c r="D243" s="23"/>
       <c r="E243" s="4"/>
       <c r="F243" s="5"/>
       <c r="G243" s="5"/>
@@ -4410,9 +4403,9 @@
     </row>
     <row r="244" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
-      <c r="B244" s="21"/>
-      <c r="C244" s="21"/>
-      <c r="D244" s="21"/>
+      <c r="B244" s="23"/>
+      <c r="C244" s="23"/>
+      <c r="D244" s="23"/>
       <c r="E244" s="4"/>
       <c r="F244" s="5"/>
       <c r="G244" s="5"/>
@@ -4423,9 +4416,9 @@
     </row>
     <row r="245" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
-      <c r="B245" s="21"/>
-      <c r="C245" s="21"/>
-      <c r="D245" s="21"/>
+      <c r="B245" s="23"/>
+      <c r="C245" s="23"/>
+      <c r="D245" s="23"/>
       <c r="E245" s="4"/>
       <c r="F245" s="5"/>
       <c r="G245" s="5"/>
@@ -4436,9 +4429,9 @@
     </row>
     <row r="246" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
-      <c r="B246" s="21"/>
-      <c r="C246" s="21"/>
-      <c r="D246" s="21"/>
+      <c r="B246" s="23"/>
+      <c r="C246" s="23"/>
+      <c r="D246" s="23"/>
       <c r="E246" s="4"/>
       <c r="F246" s="5"/>
       <c r="G246" s="5"/>
@@ -4449,9 +4442,9 @@
     </row>
     <row r="247" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
-      <c r="B247" s="21"/>
-      <c r="C247" s="21"/>
-      <c r="D247" s="21"/>
+      <c r="B247" s="23"/>
+      <c r="C247" s="23"/>
+      <c r="D247" s="23"/>
       <c r="E247" s="4"/>
       <c r="F247" s="5"/>
       <c r="G247" s="5"/>
@@ -4462,9 +4455,9 @@
     </row>
     <row r="248" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
-      <c r="B248" s="21"/>
-      <c r="C248" s="21"/>
-      <c r="D248" s="21"/>
+      <c r="B248" s="23"/>
+      <c r="C248" s="23"/>
+      <c r="D248" s="23"/>
       <c r="E248" s="4"/>
       <c r="F248" s="5"/>
       <c r="G248" s="5"/>
@@ -4475,9 +4468,9 @@
     </row>
     <row r="249" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
-      <c r="B249" s="21"/>
-      <c r="C249" s="21"/>
-      <c r="D249" s="21"/>
+      <c r="B249" s="23"/>
+      <c r="C249" s="23"/>
+      <c r="D249" s="23"/>
       <c r="E249" s="4"/>
       <c r="F249" s="5"/>
       <c r="G249" s="5"/>
@@ -4488,9 +4481,9 @@
     </row>
     <row r="250" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
-      <c r="B250" s="21"/>
-      <c r="C250" s="21"/>
-      <c r="D250" s="21"/>
+      <c r="B250" s="23"/>
+      <c r="C250" s="23"/>
+      <c r="D250" s="23"/>
       <c r="E250" s="4"/>
       <c r="F250" s="5"/>
       <c r="G250" s="5"/>
@@ -4501,9 +4494,9 @@
     </row>
     <row r="251" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
-      <c r="B251" s="21"/>
-      <c r="C251" s="21"/>
-      <c r="D251" s="21"/>
+      <c r="B251" s="23"/>
+      <c r="C251" s="23"/>
+      <c r="D251" s="23"/>
       <c r="E251" s="4"/>
       <c r="F251" s="5"/>
       <c r="G251" s="5"/>
@@ -4514,9 +4507,9 @@
     </row>
     <row r="252" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
-      <c r="B252" s="21"/>
-      <c r="C252" s="21"/>
-      <c r="D252" s="21"/>
+      <c r="B252" s="23"/>
+      <c r="C252" s="23"/>
+      <c r="D252" s="23"/>
       <c r="E252" s="4"/>
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
@@ -4527,9 +4520,9 @@
     </row>
     <row r="253" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
-      <c r="B253" s="21"/>
-      <c r="C253" s="21"/>
-      <c r="D253" s="21"/>
+      <c r="B253" s="23"/>
+      <c r="C253" s="23"/>
+      <c r="D253" s="23"/>
       <c r="E253" s="4"/>
       <c r="F253" s="5"/>
       <c r="G253" s="5"/>
@@ -4540,9 +4533,9 @@
     </row>
     <row r="254" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
-      <c r="B254" s="21"/>
-      <c r="C254" s="21"/>
-      <c r="D254" s="21"/>
+      <c r="B254" s="23"/>
+      <c r="C254" s="23"/>
+      <c r="D254" s="23"/>
       <c r="E254" s="4"/>
       <c r="F254" s="5"/>
       <c r="G254" s="5"/>
@@ -4553,9 +4546,9 @@
     </row>
     <row r="255" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
-      <c r="B255" s="21"/>
-      <c r="C255" s="21"/>
-      <c r="D255" s="21"/>
+      <c r="B255" s="23"/>
+      <c r="C255" s="23"/>
+      <c r="D255" s="23"/>
       <c r="E255" s="4"/>
       <c r="F255" s="5"/>
       <c r="G255" s="5"/>
@@ -4566,9 +4559,9 @@
     </row>
     <row r="256" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
-      <c r="B256" s="21"/>
-      <c r="C256" s="21"/>
-      <c r="D256" s="21"/>
+      <c r="B256" s="23"/>
+      <c r="C256" s="23"/>
+      <c r="D256" s="23"/>
       <c r="E256" s="4"/>
       <c r="F256" s="5"/>
       <c r="G256" s="5"/>
@@ -4579,9 +4572,9 @@
     </row>
     <row r="257" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
-      <c r="B257" s="21"/>
-      <c r="C257" s="21"/>
-      <c r="D257" s="21"/>
+      <c r="B257" s="23"/>
+      <c r="C257" s="23"/>
+      <c r="D257" s="23"/>
       <c r="E257" s="4"/>
       <c r="F257" s="5"/>
       <c r="G257" s="5"/>
@@ -4592,9 +4585,9 @@
     </row>
     <row r="258" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
-      <c r="B258" s="21"/>
-      <c r="C258" s="21"/>
-      <c r="D258" s="21"/>
+      <c r="B258" s="23"/>
+      <c r="C258" s="23"/>
+      <c r="D258" s="23"/>
       <c r="E258" s="4"/>
       <c r="F258" s="5"/>
       <c r="G258" s="5"/>
@@ -4605,9 +4598,9 @@
     </row>
     <row r="259" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
-      <c r="B259" s="21"/>
-      <c r="C259" s="21"/>
-      <c r="D259" s="21"/>
+      <c r="B259" s="23"/>
+      <c r="C259" s="23"/>
+      <c r="D259" s="23"/>
       <c r="E259" s="4"/>
       <c r="F259" s="5"/>
       <c r="G259" s="5"/>
@@ -4618,9 +4611,9 @@
     </row>
     <row r="260" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
-      <c r="B260" s="21"/>
-      <c r="C260" s="21"/>
-      <c r="D260" s="21"/>
+      <c r="B260" s="23"/>
+      <c r="C260" s="23"/>
+      <c r="D260" s="23"/>
       <c r="E260" s="4"/>
       <c r="F260" s="5"/>
       <c r="G260" s="5"/>
@@ -4631,9 +4624,9 @@
     </row>
     <row r="261" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
-      <c r="B261" s="21"/>
-      <c r="C261" s="21"/>
-      <c r="D261" s="21"/>
+      <c r="B261" s="23"/>
+      <c r="C261" s="23"/>
+      <c r="D261" s="23"/>
       <c r="E261" s="4"/>
       <c r="F261" s="5"/>
       <c r="G261" s="5"/>
@@ -4644,9 +4637,9 @@
     </row>
     <row r="262" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
-      <c r="B262" s="21"/>
-      <c r="C262" s="21"/>
-      <c r="D262" s="21"/>
+      <c r="B262" s="23"/>
+      <c r="C262" s="23"/>
+      <c r="D262" s="23"/>
       <c r="E262" s="4"/>
       <c r="F262" s="5"/>
       <c r="G262" s="5"/>
@@ -4657,9 +4650,9 @@
     </row>
     <row r="263" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
-      <c r="B263" s="21"/>
-      <c r="C263" s="21"/>
-      <c r="D263" s="21"/>
+      <c r="B263" s="23"/>
+      <c r="C263" s="23"/>
+      <c r="D263" s="23"/>
       <c r="E263" s="4"/>
       <c r="F263" s="5"/>
       <c r="G263" s="5"/>
@@ -4670,9 +4663,9 @@
     </row>
     <row r="264" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
-      <c r="B264" s="21"/>
-      <c r="C264" s="21"/>
-      <c r="D264" s="21"/>
+      <c r="B264" s="23"/>
+      <c r="C264" s="23"/>
+      <c r="D264" s="23"/>
       <c r="E264" s="4"/>
       <c r="F264" s="5"/>
       <c r="G264" s="5"/>
@@ -4683,9 +4676,9 @@
     </row>
     <row r="265" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
-      <c r="B265" s="21"/>
-      <c r="C265" s="21"/>
-      <c r="D265" s="21"/>
+      <c r="B265" s="23"/>
+      <c r="C265" s="23"/>
+      <c r="D265" s="23"/>
       <c r="E265" s="4"/>
       <c r="F265" s="5"/>
       <c r="G265" s="5"/>
@@ -4696,9 +4689,9 @@
     </row>
     <row r="266" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
-      <c r="B266" s="21"/>
-      <c r="C266" s="21"/>
-      <c r="D266" s="21"/>
+      <c r="B266" s="23"/>
+      <c r="C266" s="23"/>
+      <c r="D266" s="23"/>
       <c r="E266" s="4"/>
       <c r="F266" s="5"/>
       <c r="G266" s="5"/>
@@ -4709,9 +4702,9 @@
     </row>
     <row r="267" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
-      <c r="B267" s="21"/>
-      <c r="C267" s="21"/>
-      <c r="D267" s="21"/>
+      <c r="B267" s="23"/>
+      <c r="C267" s="23"/>
+      <c r="D267" s="23"/>
       <c r="E267" s="4"/>
       <c r="F267" s="5"/>
       <c r="G267" s="5"/>
@@ -4722,9 +4715,9 @@
     </row>
     <row r="268" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
-      <c r="B268" s="21"/>
-      <c r="C268" s="21"/>
-      <c r="D268" s="21"/>
+      <c r="B268" s="23"/>
+      <c r="C268" s="23"/>
+      <c r="D268" s="23"/>
       <c r="E268" s="4"/>
       <c r="F268" s="5"/>
       <c r="G268" s="5"/>
@@ -4735,9 +4728,9 @@
     </row>
     <row r="269" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
-      <c r="B269" s="21"/>
-      <c r="C269" s="21"/>
-      <c r="D269" s="21"/>
+      <c r="B269" s="23"/>
+      <c r="C269" s="23"/>
+      <c r="D269" s="23"/>
       <c r="E269" s="4"/>
       <c r="F269" s="5"/>
       <c r="G269" s="5"/>
@@ -4748,9 +4741,9 @@
     </row>
     <row r="270" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4"/>
-      <c r="B270" s="21"/>
-      <c r="C270" s="21"/>
-      <c r="D270" s="21"/>
+      <c r="B270" s="23"/>
+      <c r="C270" s="23"/>
+      <c r="D270" s="23"/>
       <c r="E270" s="4"/>
       <c r="F270" s="5"/>
       <c r="G270" s="5"/>
@@ -4761,9 +4754,9 @@
     </row>
     <row r="271" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4"/>
-      <c r="B271" s="21"/>
-      <c r="C271" s="21"/>
-      <c r="D271" s="21"/>
+      <c r="B271" s="23"/>
+      <c r="C271" s="23"/>
+      <c r="D271" s="23"/>
       <c r="E271" s="4"/>
       <c r="F271" s="5"/>
       <c r="G271" s="5"/>
@@ -4774,9 +4767,9 @@
     </row>
     <row r="272" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
-      <c r="B272" s="21"/>
-      <c r="C272" s="21"/>
-      <c r="D272" s="21"/>
+      <c r="B272" s="23"/>
+      <c r="C272" s="23"/>
+      <c r="D272" s="23"/>
       <c r="E272" s="4"/>
       <c r="F272" s="5"/>
       <c r="G272" s="5"/>
@@ -4787,9 +4780,9 @@
     </row>
     <row r="273" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
-      <c r="B273" s="21"/>
-      <c r="C273" s="21"/>
-      <c r="D273" s="21"/>
+      <c r="B273" s="23"/>
+      <c r="C273" s="23"/>
+      <c r="D273" s="23"/>
       <c r="E273" s="4"/>
       <c r="F273" s="5"/>
       <c r="G273" s="5"/>
@@ -4800,9 +4793,9 @@
     </row>
     <row r="274" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
-      <c r="B274" s="21"/>
-      <c r="C274" s="21"/>
-      <c r="D274" s="21"/>
+      <c r="B274" s="23"/>
+      <c r="C274" s="23"/>
+      <c r="D274" s="23"/>
       <c r="E274" s="4"/>
       <c r="F274" s="5"/>
       <c r="G274" s="5"/>
@@ -4813,9 +4806,9 @@
     </row>
     <row r="275" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
-      <c r="B275" s="21"/>
-      <c r="C275" s="21"/>
-      <c r="D275" s="21"/>
+      <c r="B275" s="23"/>
+      <c r="C275" s="23"/>
+      <c r="D275" s="23"/>
       <c r="E275" s="4"/>
       <c r="F275" s="5"/>
       <c r="G275" s="5"/>
@@ -4826,9 +4819,9 @@
     </row>
     <row r="276" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4"/>
-      <c r="B276" s="21"/>
-      <c r="C276" s="21"/>
-      <c r="D276" s="21"/>
+      <c r="B276" s="23"/>
+      <c r="C276" s="23"/>
+      <c r="D276" s="23"/>
       <c r="E276" s="4"/>
       <c r="F276" s="5"/>
       <c r="G276" s="5"/>
@@ -4839,9 +4832,9 @@
     </row>
     <row r="277" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4"/>
-      <c r="B277" s="21"/>
-      <c r="C277" s="21"/>
-      <c r="D277" s="21"/>
+      <c r="B277" s="23"/>
+      <c r="C277" s="23"/>
+      <c r="D277" s="23"/>
       <c r="E277" s="4"/>
       <c r="F277" s="5"/>
       <c r="G277" s="5"/>
@@ -4852,9 +4845,9 @@
     </row>
     <row r="278" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4"/>
-      <c r="B278" s="21"/>
-      <c r="C278" s="21"/>
-      <c r="D278" s="21"/>
+      <c r="B278" s="23"/>
+      <c r="C278" s="23"/>
+      <c r="D278" s="23"/>
       <c r="E278" s="4"/>
       <c r="F278" s="5"/>
       <c r="G278" s="5"/>
@@ -4865,9 +4858,9 @@
     </row>
     <row r="279" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4"/>
-      <c r="B279" s="21"/>
-      <c r="C279" s="21"/>
-      <c r="D279" s="21"/>
+      <c r="B279" s="23"/>
+      <c r="C279" s="23"/>
+      <c r="D279" s="23"/>
       <c r="E279" s="4"/>
       <c r="F279" s="5"/>
       <c r="G279" s="5"/>
@@ -4878,9 +4871,9 @@
     </row>
     <row r="280" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
-      <c r="B280" s="21"/>
-      <c r="C280" s="21"/>
-      <c r="D280" s="21"/>
+      <c r="B280" s="23"/>
+      <c r="C280" s="23"/>
+      <c r="D280" s="23"/>
       <c r="E280" s="4"/>
       <c r="F280" s="5"/>
       <c r="G280" s="5"/>
@@ -4891,9 +4884,9 @@
     </row>
     <row r="281" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
-      <c r="B281" s="21"/>
-      <c r="C281" s="21"/>
-      <c r="D281" s="21"/>
+      <c r="B281" s="23"/>
+      <c r="C281" s="23"/>
+      <c r="D281" s="23"/>
       <c r="E281" s="4"/>
       <c r="F281" s="5"/>
       <c r="G281" s="5"/>
@@ -4904,9 +4897,9 @@
     </row>
     <row r="282" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4"/>
-      <c r="B282" s="21"/>
-      <c r="C282" s="21"/>
-      <c r="D282" s="21"/>
+      <c r="B282" s="23"/>
+      <c r="C282" s="23"/>
+      <c r="D282" s="23"/>
       <c r="E282" s="4"/>
       <c r="F282" s="5"/>
       <c r="G282" s="5"/>
@@ -4917,9 +4910,9 @@
     </row>
     <row r="283" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4"/>
-      <c r="B283" s="21"/>
-      <c r="C283" s="21"/>
-      <c r="D283" s="21"/>
+      <c r="B283" s="23"/>
+      <c r="C283" s="23"/>
+      <c r="D283" s="23"/>
       <c r="E283" s="4"/>
       <c r="F283" s="5"/>
       <c r="G283" s="5"/>
@@ -4930,9 +4923,9 @@
     </row>
     <row r="284" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
-      <c r="B284" s="21"/>
-      <c r="C284" s="21"/>
-      <c r="D284" s="21"/>
+      <c r="B284" s="23"/>
+      <c r="C284" s="23"/>
+      <c r="D284" s="23"/>
       <c r="E284" s="4"/>
       <c r="F284" s="5"/>
       <c r="G284" s="5"/>
@@ -4943,9 +4936,9 @@
     </row>
     <row r="285" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
-      <c r="B285" s="21"/>
-      <c r="C285" s="21"/>
-      <c r="D285" s="21"/>
+      <c r="B285" s="23"/>
+      <c r="C285" s="23"/>
+      <c r="D285" s="23"/>
       <c r="E285" s="4"/>
       <c r="F285" s="5"/>
       <c r="G285" s="5"/>
@@ -4956,9 +4949,9 @@
     </row>
     <row r="286" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
-      <c r="B286" s="21"/>
-      <c r="C286" s="21"/>
-      <c r="D286" s="21"/>
+      <c r="B286" s="23"/>
+      <c r="C286" s="23"/>
+      <c r="D286" s="23"/>
       <c r="E286" s="4"/>
       <c r="F286" s="5"/>
       <c r="G286" s="5"/>
@@ -4969,9 +4962,9 @@
     </row>
     <row r="287" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
-      <c r="B287" s="21"/>
-      <c r="C287" s="21"/>
-      <c r="D287" s="21"/>
+      <c r="B287" s="23"/>
+      <c r="C287" s="23"/>
+      <c r="D287" s="23"/>
       <c r="E287" s="4"/>
       <c r="F287" s="5"/>
       <c r="G287" s="5"/>
@@ -4982,9 +4975,9 @@
     </row>
     <row r="288" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>
-      <c r="B288" s="21"/>
-      <c r="C288" s="21"/>
-      <c r="D288" s="21"/>
+      <c r="B288" s="23"/>
+      <c r="C288" s="23"/>
+      <c r="D288" s="23"/>
       <c r="E288" s="4"/>
       <c r="F288" s="5"/>
       <c r="G288" s="5"/>
@@ -4995,9 +4988,9 @@
     </row>
     <row r="289" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4"/>
-      <c r="B289" s="21"/>
-      <c r="C289" s="21"/>
-      <c r="D289" s="21"/>
+      <c r="B289" s="23"/>
+      <c r="C289" s="23"/>
+      <c r="D289" s="23"/>
       <c r="E289" s="4"/>
       <c r="F289" s="5"/>
       <c r="G289" s="5"/>
@@ -5008,9 +5001,9 @@
     </row>
     <row r="290" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4"/>
-      <c r="B290" s="21"/>
-      <c r="C290" s="21"/>
-      <c r="D290" s="21"/>
+      <c r="B290" s="23"/>
+      <c r="C290" s="23"/>
+      <c r="D290" s="23"/>
       <c r="E290" s="4"/>
       <c r="F290" s="5"/>
       <c r="G290" s="5"/>
@@ -5021,9 +5014,9 @@
     </row>
     <row r="291" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="4"/>
-      <c r="B291" s="21"/>
-      <c r="C291" s="21"/>
-      <c r="D291" s="21"/>
+      <c r="B291" s="23"/>
+      <c r="C291" s="23"/>
+      <c r="D291" s="23"/>
       <c r="E291" s="4"/>
       <c r="F291" s="5"/>
       <c r="G291" s="5"/>
@@ -5034,9 +5027,9 @@
     </row>
     <row r="292" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4"/>
-      <c r="B292" s="21"/>
-      <c r="C292" s="21"/>
-      <c r="D292" s="21"/>
+      <c r="B292" s="23"/>
+      <c r="C292" s="23"/>
+      <c r="D292" s="23"/>
       <c r="E292" s="4"/>
       <c r="F292" s="5"/>
       <c r="G292" s="5"/>
@@ -5047,9 +5040,9 @@
     </row>
     <row r="293" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
-      <c r="B293" s="21"/>
-      <c r="C293" s="21"/>
-      <c r="D293" s="21"/>
+      <c r="B293" s="23"/>
+      <c r="C293" s="23"/>
+      <c r="D293" s="23"/>
       <c r="E293" s="4"/>
       <c r="F293" s="5"/>
       <c r="G293" s="5"/>
@@ -5060,9 +5053,9 @@
     </row>
     <row r="294" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4"/>
-      <c r="B294" s="21"/>
-      <c r="C294" s="21"/>
-      <c r="D294" s="21"/>
+      <c r="B294" s="23"/>
+      <c r="C294" s="23"/>
+      <c r="D294" s="23"/>
       <c r="E294" s="4"/>
       <c r="F294" s="5"/>
       <c r="G294" s="5"/>
@@ -5073,9 +5066,9 @@
     </row>
     <row r="295" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4"/>
-      <c r="B295" s="21"/>
-      <c r="C295" s="21"/>
-      <c r="D295" s="21"/>
+      <c r="B295" s="23"/>
+      <c r="C295" s="23"/>
+      <c r="D295" s="23"/>
       <c r="E295" s="4"/>
       <c r="F295" s="5"/>
       <c r="G295" s="5"/>
@@ -5086,9 +5079,9 @@
     </row>
     <row r="296" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
-      <c r="B296" s="21"/>
-      <c r="C296" s="21"/>
-      <c r="D296" s="21"/>
+      <c r="B296" s="23"/>
+      <c r="C296" s="23"/>
+      <c r="D296" s="23"/>
       <c r="E296" s="4"/>
       <c r="F296" s="5"/>
       <c r="G296" s="5"/>
@@ -5099,9 +5092,9 @@
     </row>
     <row r="297" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
-      <c r="B297" s="21"/>
-      <c r="C297" s="21"/>
-      <c r="D297" s="21"/>
+      <c r="B297" s="23"/>
+      <c r="C297" s="23"/>
+      <c r="D297" s="23"/>
       <c r="E297" s="4"/>
       <c r="F297" s="5"/>
       <c r="G297" s="5"/>
@@ -5112,9 +5105,9 @@
     </row>
     <row r="298" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4"/>
-      <c r="B298" s="21"/>
-      <c r="C298" s="21"/>
-      <c r="D298" s="21"/>
+      <c r="B298" s="23"/>
+      <c r="C298" s="23"/>
+      <c r="D298" s="23"/>
       <c r="E298" s="4"/>
       <c r="F298" s="5"/>
       <c r="G298" s="5"/>
@@ -5125,9 +5118,9 @@
     </row>
     <row r="299" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4"/>
-      <c r="B299" s="21"/>
-      <c r="C299" s="21"/>
-      <c r="D299" s="21"/>
+      <c r="B299" s="23"/>
+      <c r="C299" s="23"/>
+      <c r="D299" s="23"/>
       <c r="E299" s="4"/>
       <c r="F299" s="5"/>
       <c r="G299" s="5"/>
@@ -5138,9 +5131,9 @@
     </row>
     <row r="300" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="4"/>
-      <c r="B300" s="21"/>
-      <c r="C300" s="21"/>
-      <c r="D300" s="21"/>
+      <c r="B300" s="23"/>
+      <c r="C300" s="23"/>
+      <c r="D300" s="23"/>
       <c r="E300" s="4"/>
       <c r="F300" s="5"/>
       <c r="G300" s="5"/>
@@ -5151,9 +5144,9 @@
     </row>
     <row r="301" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="4"/>
-      <c r="B301" s="21"/>
-      <c r="C301" s="21"/>
-      <c r="D301" s="21"/>
+      <c r="B301" s="23"/>
+      <c r="C301" s="23"/>
+      <c r="D301" s="23"/>
       <c r="E301" s="4"/>
       <c r="F301" s="5"/>
       <c r="G301" s="5"/>
@@ -5164,9 +5157,9 @@
     </row>
     <row r="302" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="4"/>
-      <c r="B302" s="21"/>
-      <c r="C302" s="21"/>
-      <c r="D302" s="21"/>
+      <c r="B302" s="23"/>
+      <c r="C302" s="23"/>
+      <c r="D302" s="23"/>
       <c r="E302" s="4"/>
       <c r="F302" s="5"/>
       <c r="G302" s="5"/>
@@ -5177,9 +5170,9 @@
     </row>
     <row r="303" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4"/>
-      <c r="B303" s="21"/>
-      <c r="C303" s="21"/>
-      <c r="D303" s="21"/>
+      <c r="B303" s="23"/>
+      <c r="C303" s="23"/>
+      <c r="D303" s="23"/>
       <c r="E303" s="4"/>
       <c r="F303" s="5"/>
       <c r="G303" s="5"/>
@@ -5190,9 +5183,9 @@
     </row>
     <row r="304" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="4"/>
-      <c r="B304" s="21"/>
-      <c r="C304" s="21"/>
-      <c r="D304" s="21"/>
+      <c r="B304" s="23"/>
+      <c r="C304" s="23"/>
+      <c r="D304" s="23"/>
       <c r="E304" s="4"/>
       <c r="F304" s="5"/>
       <c r="G304" s="5"/>
@@ -5203,9 +5196,9 @@
     </row>
     <row r="305" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="4"/>
-      <c r="B305" s="21"/>
-      <c r="C305" s="21"/>
-      <c r="D305" s="21"/>
+      <c r="B305" s="23"/>
+      <c r="C305" s="23"/>
+      <c r="D305" s="23"/>
       <c r="E305" s="4"/>
       <c r="F305" s="5"/>
       <c r="G305" s="5"/>
@@ -5216,9 +5209,9 @@
     </row>
     <row r="306" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="4"/>
-      <c r="B306" s="21"/>
-      <c r="C306" s="21"/>
-      <c r="D306" s="21"/>
+      <c r="B306" s="23"/>
+      <c r="C306" s="23"/>
+      <c r="D306" s="23"/>
       <c r="E306" s="4"/>
       <c r="F306" s="5"/>
       <c r="G306" s="5"/>
@@ -5229,9 +5222,9 @@
     </row>
     <row r="307" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="4"/>
-      <c r="B307" s="21"/>
-      <c r="C307" s="21"/>
-      <c r="D307" s="21"/>
+      <c r="B307" s="23"/>
+      <c r="C307" s="23"/>
+      <c r="D307" s="23"/>
       <c r="E307" s="4"/>
       <c r="F307" s="5"/>
       <c r="G307" s="5"/>
@@ -5242,9 +5235,9 @@
     </row>
     <row r="308" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="4"/>
-      <c r="B308" s="21"/>
-      <c r="C308" s="21"/>
-      <c r="D308" s="21"/>
+      <c r="B308" s="23"/>
+      <c r="C308" s="23"/>
+      <c r="D308" s="23"/>
       <c r="E308" s="4"/>
       <c r="F308" s="5"/>
       <c r="G308" s="5"/>
@@ -5255,9 +5248,9 @@
     </row>
     <row r="309" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="4"/>
-      <c r="B309" s="21"/>
-      <c r="C309" s="21"/>
-      <c r="D309" s="21"/>
+      <c r="B309" s="23"/>
+      <c r="C309" s="23"/>
+      <c r="D309" s="23"/>
       <c r="E309" s="4"/>
       <c r="F309" s="5"/>
       <c r="G309" s="5"/>
@@ -5268,9 +5261,9 @@
     </row>
     <row r="310" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="4"/>
-      <c r="B310" s="21"/>
-      <c r="C310" s="21"/>
-      <c r="D310" s="21"/>
+      <c r="B310" s="23"/>
+      <c r="C310" s="23"/>
+      <c r="D310" s="23"/>
       <c r="E310" s="4"/>
       <c r="F310" s="5"/>
       <c r="G310" s="5"/>
@@ -5281,9 +5274,9 @@
     </row>
     <row r="311" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="4"/>
-      <c r="B311" s="21"/>
-      <c r="C311" s="21"/>
-      <c r="D311" s="21"/>
+      <c r="B311" s="23"/>
+      <c r="C311" s="23"/>
+      <c r="D311" s="23"/>
       <c r="E311" s="4"/>
       <c r="F311" s="5"/>
       <c r="G311" s="5"/>
@@ -5294,9 +5287,9 @@
     </row>
     <row r="312" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="4"/>
-      <c r="B312" s="21"/>
-      <c r="C312" s="21"/>
-      <c r="D312" s="21"/>
+      <c r="B312" s="23"/>
+      <c r="C312" s="23"/>
+      <c r="D312" s="23"/>
       <c r="E312" s="4"/>
       <c r="F312" s="5"/>
       <c r="G312" s="5"/>
@@ -5307,9 +5300,9 @@
     </row>
     <row r="313" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="4"/>
-      <c r="B313" s="21"/>
-      <c r="C313" s="21"/>
-      <c r="D313" s="21"/>
+      <c r="B313" s="23"/>
+      <c r="C313" s="23"/>
+      <c r="D313" s="23"/>
       <c r="E313" s="4"/>
       <c r="F313" s="5"/>
       <c r="G313" s="5"/>
@@ -5320,9 +5313,9 @@
     </row>
     <row r="314" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="4"/>
-      <c r="B314" s="21"/>
-      <c r="C314" s="21"/>
-      <c r="D314" s="21"/>
+      <c r="B314" s="23"/>
+      <c r="C314" s="23"/>
+      <c r="D314" s="23"/>
       <c r="E314" s="4"/>
       <c r="F314" s="5"/>
       <c r="G314" s="5"/>
@@ -5333,9 +5326,9 @@
     </row>
     <row r="315" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="4"/>
-      <c r="B315" s="21"/>
-      <c r="C315" s="21"/>
-      <c r="D315" s="21"/>
+      <c r="B315" s="23"/>
+      <c r="C315" s="23"/>
+      <c r="D315" s="23"/>
       <c r="E315" s="4"/>
       <c r="F315" s="5"/>
       <c r="G315" s="5"/>
@@ -5346,9 +5339,9 @@
     </row>
     <row r="316" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="4"/>
-      <c r="B316" s="21"/>
-      <c r="C316" s="21"/>
-      <c r="D316" s="21"/>
+      <c r="B316" s="23"/>
+      <c r="C316" s="23"/>
+      <c r="D316" s="23"/>
       <c r="E316" s="4"/>
       <c r="F316" s="5"/>
       <c r="G316" s="5"/>
@@ -5359,9 +5352,9 @@
     </row>
     <row r="317" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="4"/>
-      <c r="B317" s="21"/>
-      <c r="C317" s="21"/>
-      <c r="D317" s="21"/>
+      <c r="B317" s="23"/>
+      <c r="C317" s="23"/>
+      <c r="D317" s="23"/>
       <c r="E317" s="4"/>
       <c r="F317" s="5"/>
       <c r="G317" s="5"/>
@@ -5372,9 +5365,9 @@
     </row>
     <row r="318" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="4"/>
-      <c r="B318" s="21"/>
-      <c r="C318" s="21"/>
-      <c r="D318" s="21"/>
+      <c r="B318" s="23"/>
+      <c r="C318" s="23"/>
+      <c r="D318" s="23"/>
       <c r="E318" s="4"/>
       <c r="F318" s="5"/>
       <c r="G318" s="5"/>
@@ -5385,9 +5378,9 @@
     </row>
     <row r="319" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="4"/>
-      <c r="B319" s="21"/>
-      <c r="C319" s="21"/>
-      <c r="D319" s="21"/>
+      <c r="B319" s="23"/>
+      <c r="C319" s="23"/>
+      <c r="D319" s="23"/>
       <c r="E319" s="4"/>
       <c r="F319" s="5"/>
       <c r="G319" s="5"/>
@@ -5398,9 +5391,9 @@
     </row>
     <row r="320" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="4"/>
-      <c r="B320" s="21"/>
-      <c r="C320" s="21"/>
-      <c r="D320" s="21"/>
+      <c r="B320" s="23"/>
+      <c r="C320" s="23"/>
+      <c r="D320" s="23"/>
       <c r="E320" s="4"/>
       <c r="F320" s="5"/>
       <c r="G320" s="5"/>
@@ -5411,9 +5404,9 @@
     </row>
     <row r="321" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="4"/>
-      <c r="B321" s="21"/>
-      <c r="C321" s="21"/>
-      <c r="D321" s="21"/>
+      <c r="B321" s="23"/>
+      <c r="C321" s="23"/>
+      <c r="D321" s="23"/>
       <c r="E321" s="4"/>
       <c r="F321" s="5"/>
       <c r="G321" s="5"/>
@@ -5424,9 +5417,9 @@
     </row>
     <row r="322" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="4"/>
-      <c r="B322" s="21"/>
-      <c r="C322" s="21"/>
-      <c r="D322" s="21"/>
+      <c r="B322" s="23"/>
+      <c r="C322" s="23"/>
+      <c r="D322" s="23"/>
       <c r="E322" s="4"/>
       <c r="F322" s="5"/>
       <c r="G322" s="5"/>
@@ -5437,9 +5430,9 @@
     </row>
     <row r="323" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="4"/>
-      <c r="B323" s="21"/>
-      <c r="C323" s="21"/>
-      <c r="D323" s="21"/>
+      <c r="B323" s="23"/>
+      <c r="C323" s="23"/>
+      <c r="D323" s="23"/>
       <c r="E323" s="4"/>
       <c r="F323" s="5"/>
       <c r="G323" s="5"/>
@@ -5450,9 +5443,9 @@
     </row>
     <row r="324" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="4"/>
-      <c r="B324" s="21"/>
-      <c r="C324" s="21"/>
-      <c r="D324" s="21"/>
+      <c r="B324" s="23"/>
+      <c r="C324" s="23"/>
+      <c r="D324" s="23"/>
       <c r="E324" s="4"/>
       <c r="F324" s="5"/>
       <c r="G324" s="5"/>
@@ -5463,9 +5456,9 @@
     </row>
     <row r="325" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="4"/>
-      <c r="B325" s="21"/>
-      <c r="C325" s="21"/>
-      <c r="D325" s="21"/>
+      <c r="B325" s="23"/>
+      <c r="C325" s="23"/>
+      <c r="D325" s="23"/>
       <c r="E325" s="4"/>
       <c r="F325" s="5"/>
       <c r="G325" s="5"/>
@@ -5476,9 +5469,9 @@
     </row>
     <row r="326" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="4"/>
-      <c r="B326" s="21"/>
-      <c r="C326" s="21"/>
-      <c r="D326" s="21"/>
+      <c r="B326" s="23"/>
+      <c r="C326" s="23"/>
+      <c r="D326" s="23"/>
       <c r="E326" s="4"/>
       <c r="F326" s="5"/>
       <c r="G326" s="5"/>
@@ -5489,9 +5482,9 @@
     </row>
     <row r="327" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="4"/>
-      <c r="B327" s="21"/>
-      <c r="C327" s="21"/>
-      <c r="D327" s="21"/>
+      <c r="B327" s="23"/>
+      <c r="C327" s="23"/>
+      <c r="D327" s="23"/>
       <c r="E327" s="4"/>
       <c r="F327" s="5"/>
       <c r="G327" s="5"/>
@@ -5502,9 +5495,9 @@
     </row>
     <row r="328" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="4"/>
-      <c r="B328" s="21"/>
-      <c r="C328" s="21"/>
-      <c r="D328" s="21"/>
+      <c r="B328" s="23"/>
+      <c r="C328" s="23"/>
+      <c r="D328" s="23"/>
       <c r="E328" s="4"/>
       <c r="F328" s="5"/>
       <c r="G328" s="5"/>
@@ -5515,9 +5508,9 @@
     </row>
     <row r="329" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="4"/>
-      <c r="B329" s="21"/>
-      <c r="C329" s="21"/>
-      <c r="D329" s="21"/>
+      <c r="B329" s="23"/>
+      <c r="C329" s="23"/>
+      <c r="D329" s="23"/>
       <c r="E329" s="4"/>
       <c r="F329" s="5"/>
       <c r="G329" s="5"/>
@@ -5528,9 +5521,9 @@
     </row>
     <row r="330" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="4"/>
-      <c r="B330" s="21"/>
-      <c r="C330" s="21"/>
-      <c r="D330" s="21"/>
+      <c r="B330" s="23"/>
+      <c r="C330" s="23"/>
+      <c r="D330" s="23"/>
       <c r="E330" s="4"/>
       <c r="F330" s="5"/>
       <c r="G330" s="5"/>
@@ -5541,9 +5534,9 @@
     </row>
     <row r="331" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="4"/>
-      <c r="B331" s="21"/>
-      <c r="C331" s="21"/>
-      <c r="D331" s="21"/>
+      <c r="B331" s="23"/>
+      <c r="C331" s="23"/>
+      <c r="D331" s="23"/>
       <c r="E331" s="4"/>
       <c r="F331" s="5"/>
       <c r="G331" s="5"/>
@@ -5554,9 +5547,9 @@
     </row>
     <row r="332" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="4"/>
-      <c r="B332" s="21"/>
-      <c r="C332" s="21"/>
-      <c r="D332" s="21"/>
+      <c r="B332" s="23"/>
+      <c r="C332" s="23"/>
+      <c r="D332" s="23"/>
       <c r="E332" s="4"/>
       <c r="F332" s="5"/>
       <c r="G332" s="5"/>
@@ -5567,9 +5560,9 @@
     </row>
     <row r="333" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="4"/>
-      <c r="B333" s="21"/>
-      <c r="C333" s="21"/>
-      <c r="D333" s="21"/>
+      <c r="B333" s="23"/>
+      <c r="C333" s="23"/>
+      <c r="D333" s="23"/>
       <c r="E333" s="4"/>
       <c r="F333" s="5"/>
       <c r="G333" s="5"/>
@@ -5580,9 +5573,9 @@
     </row>
     <row r="334" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="4"/>
-      <c r="B334" s="21"/>
-      <c r="C334" s="21"/>
-      <c r="D334" s="21"/>
+      <c r="B334" s="23"/>
+      <c r="C334" s="23"/>
+      <c r="D334" s="23"/>
       <c r="E334" s="4"/>
       <c r="F334" s="5"/>
       <c r="G334" s="5"/>
@@ -5593,9 +5586,9 @@
     </row>
     <row r="335" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="4"/>
-      <c r="B335" s="21"/>
-      <c r="C335" s="21"/>
-      <c r="D335" s="21"/>
+      <c r="B335" s="23"/>
+      <c r="C335" s="23"/>
+      <c r="D335" s="23"/>
       <c r="E335" s="4"/>
       <c r="F335" s="5"/>
       <c r="G335" s="5"/>
@@ -5606,9 +5599,9 @@
     </row>
     <row r="336" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="4"/>
-      <c r="B336" s="21"/>
-      <c r="C336" s="21"/>
-      <c r="D336" s="21"/>
+      <c r="B336" s="23"/>
+      <c r="C336" s="23"/>
+      <c r="D336" s="23"/>
       <c r="E336" s="4"/>
       <c r="F336" s="5"/>
       <c r="G336" s="5"/>
@@ -5619,9 +5612,9 @@
     </row>
     <row r="337" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="4"/>
-      <c r="B337" s="21"/>
-      <c r="C337" s="21"/>
-      <c r="D337" s="21"/>
+      <c r="B337" s="23"/>
+      <c r="C337" s="23"/>
+      <c r="D337" s="23"/>
       <c r="E337" s="4"/>
       <c r="F337" s="5"/>
       <c r="G337" s="5"/>
@@ -5632,9 +5625,9 @@
     </row>
     <row r="338" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="4"/>
-      <c r="B338" s="21"/>
-      <c r="C338" s="21"/>
-      <c r="D338" s="21"/>
+      <c r="B338" s="23"/>
+      <c r="C338" s="23"/>
+      <c r="D338" s="23"/>
       <c r="E338" s="4"/>
       <c r="F338" s="5"/>
       <c r="G338" s="5"/>
@@ -5645,9 +5638,9 @@
     </row>
     <row r="339" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="4"/>
-      <c r="B339" s="21"/>
-      <c r="C339" s="21"/>
-      <c r="D339" s="21"/>
+      <c r="B339" s="23"/>
+      <c r="C339" s="23"/>
+      <c r="D339" s="23"/>
       <c r="E339" s="4"/>
       <c r="F339" s="5"/>
       <c r="G339" s="5"/>
@@ -5658,9 +5651,9 @@
     </row>
     <row r="340" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="4"/>
-      <c r="B340" s="21"/>
-      <c r="C340" s="21"/>
-      <c r="D340" s="21"/>
+      <c r="B340" s="23"/>
+      <c r="C340" s="23"/>
+      <c r="D340" s="23"/>
       <c r="E340" s="4"/>
       <c r="F340" s="5"/>
       <c r="G340" s="5"/>
@@ -5671,9 +5664,9 @@
     </row>
     <row r="341" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="4"/>
-      <c r="B341" s="21"/>
-      <c r="C341" s="21"/>
-      <c r="D341" s="21"/>
+      <c r="B341" s="23"/>
+      <c r="C341" s="23"/>
+      <c r="D341" s="23"/>
       <c r="E341" s="4"/>
       <c r="F341" s="5"/>
       <c r="G341" s="5"/>
@@ -5684,9 +5677,9 @@
     </row>
     <row r="342" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="4"/>
-      <c r="B342" s="21"/>
-      <c r="C342" s="21"/>
-      <c r="D342" s="21"/>
+      <c r="B342" s="23"/>
+      <c r="C342" s="23"/>
+      <c r="D342" s="23"/>
       <c r="E342" s="4"/>
       <c r="F342" s="5"/>
       <c r="G342" s="5"/>
@@ -5697,9 +5690,9 @@
     </row>
     <row r="343" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="4"/>
-      <c r="B343" s="21"/>
-      <c r="C343" s="21"/>
-      <c r="D343" s="21"/>
+      <c r="B343" s="23"/>
+      <c r="C343" s="23"/>
+      <c r="D343" s="23"/>
       <c r="E343" s="4"/>
       <c r="F343" s="5"/>
       <c r="G343" s="5"/>
@@ -5710,9 +5703,9 @@
     </row>
     <row r="344" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="4"/>
-      <c r="B344" s="21"/>
-      <c r="C344" s="21"/>
-      <c r="D344" s="21"/>
+      <c r="B344" s="23"/>
+      <c r="C344" s="23"/>
+      <c r="D344" s="23"/>
       <c r="E344" s="4"/>
       <c r="F344" s="5"/>
       <c r="G344" s="5"/>
@@ -5723,9 +5716,9 @@
     </row>
     <row r="345" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="4"/>
-      <c r="B345" s="21"/>
-      <c r="C345" s="21"/>
-      <c r="D345" s="21"/>
+      <c r="B345" s="23"/>
+      <c r="C345" s="23"/>
+      <c r="D345" s="23"/>
       <c r="E345" s="4"/>
       <c r="F345" s="5"/>
       <c r="G345" s="5"/>
@@ -5736,9 +5729,9 @@
     </row>
     <row r="346" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="4"/>
-      <c r="B346" s="21"/>
-      <c r="C346" s="21"/>
-      <c r="D346" s="21"/>
+      <c r="B346" s="23"/>
+      <c r="C346" s="23"/>
+      <c r="D346" s="23"/>
       <c r="E346" s="4"/>
       <c r="F346" s="5"/>
       <c r="G346" s="5"/>
@@ -5749,9 +5742,9 @@
     </row>
     <row r="347" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="4"/>
-      <c r="B347" s="21"/>
-      <c r="C347" s="21"/>
-      <c r="D347" s="21"/>
+      <c r="B347" s="23"/>
+      <c r="C347" s="23"/>
+      <c r="D347" s="23"/>
       <c r="E347" s="4"/>
       <c r="F347" s="5"/>
       <c r="G347" s="5"/>
@@ -5762,9 +5755,9 @@
     </row>
     <row r="348" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="4"/>
-      <c r="B348" s="21"/>
-      <c r="C348" s="21"/>
-      <c r="D348" s="21"/>
+      <c r="B348" s="23"/>
+      <c r="C348" s="23"/>
+      <c r="D348" s="23"/>
       <c r="E348" s="4"/>
       <c r="F348" s="5"/>
       <c r="G348" s="5"/>
@@ -5775,9 +5768,9 @@
     </row>
     <row r="349" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="4"/>
-      <c r="B349" s="21"/>
-      <c r="C349" s="21"/>
-      <c r="D349" s="21"/>
+      <c r="B349" s="23"/>
+      <c r="C349" s="23"/>
+      <c r="D349" s="23"/>
       <c r="E349" s="4"/>
       <c r="F349" s="5"/>
       <c r="G349" s="5"/>
@@ -5788,9 +5781,9 @@
     </row>
     <row r="350" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="4"/>
-      <c r="B350" s="21"/>
-      <c r="C350" s="21"/>
-      <c r="D350" s="21"/>
+      <c r="B350" s="23"/>
+      <c r="C350" s="23"/>
+      <c r="D350" s="23"/>
       <c r="E350" s="4"/>
       <c r="F350" s="5"/>
       <c r="G350" s="5"/>
@@ -5801,9 +5794,9 @@
     </row>
     <row r="351" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="4"/>
-      <c r="B351" s="21"/>
-      <c r="C351" s="21"/>
-      <c r="D351" s="21"/>
+      <c r="B351" s="23"/>
+      <c r="C351" s="23"/>
+      <c r="D351" s="23"/>
       <c r="E351" s="4"/>
       <c r="F351" s="5"/>
       <c r="G351" s="5"/>
@@ -5814,9 +5807,9 @@
     </row>
     <row r="352" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="4"/>
-      <c r="B352" s="21"/>
-      <c r="C352" s="21"/>
-      <c r="D352" s="21"/>
+      <c r="B352" s="23"/>
+      <c r="C352" s="23"/>
+      <c r="D352" s="23"/>
       <c r="E352" s="4"/>
       <c r="F352" s="5"/>
       <c r="G352" s="5"/>
@@ -5827,9 +5820,9 @@
     </row>
     <row r="353" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="4"/>
-      <c r="B353" s="21"/>
-      <c r="C353" s="21"/>
-      <c r="D353" s="21"/>
+      <c r="B353" s="23"/>
+      <c r="C353" s="23"/>
+      <c r="D353" s="23"/>
       <c r="E353" s="4"/>
       <c r="F353" s="5"/>
       <c r="G353" s="5"/>
@@ -5840,9 +5833,9 @@
     </row>
     <row r="354" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="4"/>
-      <c r="B354" s="21"/>
-      <c r="C354" s="21"/>
-      <c r="D354" s="21"/>
+      <c r="B354" s="23"/>
+      <c r="C354" s="23"/>
+      <c r="D354" s="23"/>
       <c r="E354" s="4"/>
       <c r="F354" s="5"/>
       <c r="G354" s="5"/>
@@ -5853,9 +5846,9 @@
     </row>
     <row r="355" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="4"/>
-      <c r="B355" s="21"/>
-      <c r="C355" s="21"/>
-      <c r="D355" s="21"/>
+      <c r="B355" s="23"/>
+      <c r="C355" s="23"/>
+      <c r="D355" s="23"/>
       <c r="E355" s="4"/>
       <c r="F355" s="5"/>
       <c r="G355" s="5"/>
@@ -5866,9 +5859,9 @@
     </row>
     <row r="356" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="4"/>
-      <c r="B356" s="21"/>
-      <c r="C356" s="21"/>
-      <c r="D356" s="21"/>
+      <c r="B356" s="23"/>
+      <c r="C356" s="23"/>
+      <c r="D356" s="23"/>
       <c r="E356" s="4"/>
       <c r="F356" s="5"/>
       <c r="G356" s="5"/>
@@ -5879,9 +5872,9 @@
     </row>
     <row r="357" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="4"/>
-      <c r="B357" s="21"/>
-      <c r="C357" s="21"/>
-      <c r="D357" s="21"/>
+      <c r="B357" s="23"/>
+      <c r="C357" s="23"/>
+      <c r="D357" s="23"/>
       <c r="E357" s="4"/>
       <c r="F357" s="5"/>
       <c r="G357" s="5"/>
@@ -5892,9 +5885,9 @@
     </row>
     <row r="358" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="4"/>
-      <c r="B358" s="21"/>
-      <c r="C358" s="21"/>
-      <c r="D358" s="21"/>
+      <c r="B358" s="23"/>
+      <c r="C358" s="23"/>
+      <c r="D358" s="23"/>
       <c r="E358" s="4"/>
       <c r="F358" s="5"/>
       <c r="G358" s="5"/>
@@ -5905,9 +5898,9 @@
     </row>
     <row r="359" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
-      <c r="B359" s="21"/>
-      <c r="C359" s="21"/>
-      <c r="D359" s="21"/>
+      <c r="B359" s="23"/>
+      <c r="C359" s="23"/>
+      <c r="D359" s="23"/>
       <c r="E359" s="4"/>
       <c r="F359" s="5"/>
       <c r="G359" s="5"/>
@@ -5918,9 +5911,9 @@
     </row>
     <row r="360" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="4"/>
-      <c r="B360" s="21"/>
-      <c r="C360" s="21"/>
-      <c r="D360" s="21"/>
+      <c r="B360" s="23"/>
+      <c r="C360" s="23"/>
+      <c r="D360" s="23"/>
       <c r="E360" s="4"/>
       <c r="F360" s="5"/>
       <c r="G360" s="5"/>
@@ -5931,9 +5924,9 @@
     </row>
     <row r="361" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="4"/>
-      <c r="B361" s="21"/>
-      <c r="C361" s="21"/>
-      <c r="D361" s="21"/>
+      <c r="B361" s="23"/>
+      <c r="C361" s="23"/>
+      <c r="D361" s="23"/>
       <c r="E361" s="4"/>
       <c r="F361" s="5"/>
       <c r="G361" s="5"/>
@@ -5944,9 +5937,9 @@
     </row>
     <row r="362" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="4"/>
-      <c r="B362" s="21"/>
-      <c r="C362" s="21"/>
-      <c r="D362" s="21"/>
+      <c r="B362" s="23"/>
+      <c r="C362" s="23"/>
+      <c r="D362" s="23"/>
       <c r="E362" s="4"/>
       <c r="F362" s="5"/>
       <c r="G362" s="5"/>
@@ -5957,9 +5950,9 @@
     </row>
     <row r="363" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="4"/>
-      <c r="B363" s="21"/>
-      <c r="C363" s="21"/>
-      <c r="D363" s="21"/>
+      <c r="B363" s="23"/>
+      <c r="C363" s="23"/>
+      <c r="D363" s="23"/>
       <c r="E363" s="4"/>
       <c r="F363" s="5"/>
       <c r="G363" s="5"/>
@@ -5970,9 +5963,9 @@
     </row>
     <row r="364" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="4"/>
-      <c r="B364" s="21"/>
-      <c r="C364" s="21"/>
-      <c r="D364" s="21"/>
+      <c r="B364" s="23"/>
+      <c r="C364" s="23"/>
+      <c r="D364" s="23"/>
       <c r="E364" s="4"/>
       <c r="F364" s="5"/>
       <c r="G364" s="5"/>
@@ -5983,9 +5976,9 @@
     </row>
     <row r="365" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="4"/>
-      <c r="B365" s="21"/>
-      <c r="C365" s="21"/>
-      <c r="D365" s="21"/>
+      <c r="B365" s="23"/>
+      <c r="C365" s="23"/>
+      <c r="D365" s="23"/>
       <c r="E365" s="4"/>
       <c r="F365" s="5"/>
       <c r="G365" s="5"/>
@@ -5996,9 +5989,9 @@
     </row>
     <row r="366" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="4"/>
-      <c r="B366" s="21"/>
-      <c r="C366" s="21"/>
-      <c r="D366" s="21"/>
+      <c r="B366" s="23"/>
+      <c r="C366" s="23"/>
+      <c r="D366" s="23"/>
       <c r="E366" s="4"/>
       <c r="F366" s="5"/>
       <c r="G366" s="5"/>
@@ -6009,9 +6002,9 @@
     </row>
     <row r="367" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="4"/>
-      <c r="B367" s="21"/>
-      <c r="C367" s="21"/>
-      <c r="D367" s="21"/>
+      <c r="B367" s="23"/>
+      <c r="C367" s="23"/>
+      <c r="D367" s="23"/>
       <c r="E367" s="4"/>
       <c r="F367" s="5"/>
       <c r="G367" s="5"/>
@@ -6022,9 +6015,9 @@
     </row>
     <row r="368" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="4"/>
-      <c r="B368" s="21"/>
-      <c r="C368" s="21"/>
-      <c r="D368" s="21"/>
+      <c r="B368" s="23"/>
+      <c r="C368" s="23"/>
+      <c r="D368" s="23"/>
       <c r="E368" s="4"/>
       <c r="F368" s="5"/>
       <c r="G368" s="5"/>
@@ -6035,9 +6028,9 @@
     </row>
     <row r="369" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="4"/>
-      <c r="B369" s="21"/>
-      <c r="C369" s="21"/>
-      <c r="D369" s="21"/>
+      <c r="B369" s="23"/>
+      <c r="C369" s="23"/>
+      <c r="D369" s="23"/>
       <c r="E369" s="4"/>
       <c r="F369" s="5"/>
       <c r="G369" s="5"/>
@@ -6048,9 +6041,9 @@
     </row>
     <row r="370" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="4"/>
-      <c r="B370" s="21"/>
-      <c r="C370" s="21"/>
-      <c r="D370" s="21"/>
+      <c r="B370" s="23"/>
+      <c r="C370" s="23"/>
+      <c r="D370" s="23"/>
       <c r="E370" s="4"/>
       <c r="F370" s="5"/>
       <c r="G370" s="5"/>
@@ -6061,9 +6054,9 @@
     </row>
     <row r="371" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="4"/>
-      <c r="B371" s="21"/>
-      <c r="C371" s="21"/>
-      <c r="D371" s="21"/>
+      <c r="B371" s="23"/>
+      <c r="C371" s="23"/>
+      <c r="D371" s="23"/>
       <c r="E371" s="4"/>
       <c r="F371" s="5"/>
       <c r="G371" s="5"/>
@@ -6074,9 +6067,9 @@
     </row>
     <row r="372" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="4"/>
-      <c r="B372" s="21"/>
-      <c r="C372" s="21"/>
-      <c r="D372" s="21"/>
+      <c r="B372" s="23"/>
+      <c r="C372" s="23"/>
+      <c r="D372" s="23"/>
       <c r="E372" s="4"/>
       <c r="F372" s="5"/>
       <c r="G372" s="5"/>
@@ -6087,9 +6080,9 @@
     </row>
     <row r="373" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="4"/>
-      <c r="B373" s="21"/>
-      <c r="C373" s="21"/>
-      <c r="D373" s="21"/>
+      <c r="B373" s="23"/>
+      <c r="C373" s="23"/>
+      <c r="D373" s="23"/>
       <c r="E373" s="4"/>
       <c r="F373" s="5"/>
       <c r="G373" s="5"/>
@@ -6100,9 +6093,9 @@
     </row>
     <row r="374" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="4"/>
-      <c r="B374" s="21"/>
-      <c r="C374" s="21"/>
-      <c r="D374" s="21"/>
+      <c r="B374" s="23"/>
+      <c r="C374" s="23"/>
+      <c r="D374" s="23"/>
       <c r="E374" s="4"/>
       <c r="F374" s="5"/>
       <c r="G374" s="5"/>
@@ -6113,9 +6106,9 @@
     </row>
     <row r="375" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="4"/>
-      <c r="B375" s="21"/>
-      <c r="C375" s="21"/>
-      <c r="D375" s="21"/>
+      <c r="B375" s="23"/>
+      <c r="C375" s="23"/>
+      <c r="D375" s="23"/>
       <c r="E375" s="4"/>
       <c r="F375" s="5"/>
       <c r="G375" s="5"/>
@@ -6126,9 +6119,9 @@
     </row>
     <row r="376" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="4"/>
-      <c r="B376" s="21"/>
-      <c r="C376" s="21"/>
-      <c r="D376" s="21"/>
+      <c r="B376" s="23"/>
+      <c r="C376" s="23"/>
+      <c r="D376" s="23"/>
       <c r="E376" s="4"/>
       <c r="F376" s="5"/>
       <c r="G376" s="5"/>
@@ -6139,9 +6132,9 @@
     </row>
     <row r="377" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="4"/>
-      <c r="B377" s="21"/>
-      <c r="C377" s="21"/>
-      <c r="D377" s="21"/>
+      <c r="B377" s="23"/>
+      <c r="C377" s="23"/>
+      <c r="D377" s="23"/>
       <c r="E377" s="4"/>
       <c r="F377" s="5"/>
       <c r="G377" s="5"/>
@@ -6152,9 +6145,9 @@
     </row>
     <row r="378" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="4"/>
-      <c r="B378" s="21"/>
-      <c r="C378" s="21"/>
-      <c r="D378" s="21"/>
+      <c r="B378" s="23"/>
+      <c r="C378" s="23"/>
+      <c r="D378" s="23"/>
       <c r="E378" s="4"/>
       <c r="F378" s="5"/>
       <c r="G378" s="5"/>
@@ -6165,9 +6158,9 @@
     </row>
     <row r="379" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="4"/>
-      <c r="B379" s="21"/>
-      <c r="C379" s="21"/>
-      <c r="D379" s="21"/>
+      <c r="B379" s="23"/>
+      <c r="C379" s="23"/>
+      <c r="D379" s="23"/>
       <c r="E379" s="4"/>
       <c r="F379" s="5"/>
       <c r="G379" s="5"/>
@@ -6178,9 +6171,9 @@
     </row>
     <row r="380" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="4"/>
-      <c r="B380" s="21"/>
-      <c r="C380" s="21"/>
-      <c r="D380" s="21"/>
+      <c r="B380" s="23"/>
+      <c r="C380" s="23"/>
+      <c r="D380" s="23"/>
       <c r="E380" s="4"/>
       <c r="F380" s="5"/>
       <c r="G380" s="5"/>
@@ -6191,9 +6184,9 @@
     </row>
     <row r="381" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="4"/>
-      <c r="B381" s="21"/>
-      <c r="C381" s="21"/>
-      <c r="D381" s="21"/>
+      <c r="B381" s="23"/>
+      <c r="C381" s="23"/>
+      <c r="D381" s="23"/>
       <c r="E381" s="4"/>
       <c r="F381" s="5"/>
       <c r="G381" s="5"/>
@@ -6204,9 +6197,9 @@
     </row>
     <row r="382" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="4"/>
-      <c r="B382" s="21"/>
-      <c r="C382" s="21"/>
-      <c r="D382" s="21"/>
+      <c r="B382" s="23"/>
+      <c r="C382" s="23"/>
+      <c r="D382" s="23"/>
       <c r="E382" s="4"/>
       <c r="F382" s="5"/>
       <c r="G382" s="5"/>
@@ -6217,9 +6210,9 @@
     </row>
     <row r="383" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="4"/>
-      <c r="B383" s="21"/>
-      <c r="C383" s="21"/>
-      <c r="D383" s="21"/>
+      <c r="B383" s="23"/>
+      <c r="C383" s="23"/>
+      <c r="D383" s="23"/>
       <c r="E383" s="4"/>
       <c r="F383" s="5"/>
       <c r="G383" s="5"/>
@@ -6230,9 +6223,9 @@
     </row>
     <row r="384" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="4"/>
-      <c r="B384" s="21"/>
-      <c r="C384" s="21"/>
-      <c r="D384" s="21"/>
+      <c r="B384" s="23"/>
+      <c r="C384" s="23"/>
+      <c r="D384" s="23"/>
       <c r="E384" s="4"/>
       <c r="F384" s="5"/>
       <c r="G384" s="5"/>
@@ -6243,9 +6236,9 @@
     </row>
     <row r="385" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="4"/>
-      <c r="B385" s="21"/>
-      <c r="C385" s="21"/>
-      <c r="D385" s="21"/>
+      <c r="B385" s="23"/>
+      <c r="C385" s="23"/>
+      <c r="D385" s="23"/>
       <c r="E385" s="4"/>
       <c r="F385" s="5"/>
       <c r="G385" s="5"/>
@@ -6256,9 +6249,9 @@
     </row>
     <row r="386" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="4"/>
-      <c r="B386" s="21"/>
-      <c r="C386" s="21"/>
-      <c r="D386" s="21"/>
+      <c r="B386" s="23"/>
+      <c r="C386" s="23"/>
+      <c r="D386" s="23"/>
       <c r="E386" s="4"/>
       <c r="F386" s="5"/>
       <c r="G386" s="5"/>
@@ -6269,9 +6262,9 @@
     </row>
     <row r="387" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="4"/>
-      <c r="B387" s="21"/>
-      <c r="C387" s="21"/>
-      <c r="D387" s="21"/>
+      <c r="B387" s="23"/>
+      <c r="C387" s="23"/>
+      <c r="D387" s="23"/>
       <c r="E387" s="4"/>
       <c r="F387" s="5"/>
       <c r="G387" s="5"/>
@@ -6282,9 +6275,9 @@
     </row>
     <row r="388" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="4"/>
-      <c r="B388" s="21"/>
-      <c r="C388" s="21"/>
-      <c r="D388" s="21"/>
+      <c r="B388" s="23"/>
+      <c r="C388" s="23"/>
+      <c r="D388" s="23"/>
       <c r="E388" s="4"/>
       <c r="F388" s="5"/>
       <c r="G388" s="5"/>
@@ -6295,9 +6288,9 @@
     </row>
     <row r="389" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="4"/>
-      <c r="B389" s="21"/>
-      <c r="C389" s="21"/>
-      <c r="D389" s="21"/>
+      <c r="B389" s="23"/>
+      <c r="C389" s="23"/>
+      <c r="D389" s="23"/>
       <c r="E389" s="4"/>
       <c r="F389" s="5"/>
       <c r="G389" s="5"/>
@@ -6308,9 +6301,9 @@
     </row>
     <row r="390" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="4"/>
-      <c r="B390" s="21"/>
-      <c r="C390" s="21"/>
-      <c r="D390" s="21"/>
+      <c r="B390" s="23"/>
+      <c r="C390" s="23"/>
+      <c r="D390" s="23"/>
       <c r="E390" s="4"/>
       <c r="F390" s="5"/>
       <c r="G390" s="5"/>
@@ -6321,9 +6314,9 @@
     </row>
     <row r="391" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="4"/>
-      <c r="B391" s="21"/>
-      <c r="C391" s="21"/>
-      <c r="D391" s="21"/>
+      <c r="B391" s="23"/>
+      <c r="C391" s="23"/>
+      <c r="D391" s="23"/>
       <c r="E391" s="4"/>
       <c r="F391" s="5"/>
       <c r="G391" s="5"/>
@@ -6334,9 +6327,9 @@
     </row>
     <row r="392" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="4"/>
-      <c r="B392" s="21"/>
-      <c r="C392" s="21"/>
-      <c r="D392" s="21"/>
+      <c r="B392" s="23"/>
+      <c r="C392" s="23"/>
+      <c r="D392" s="23"/>
       <c r="E392" s="4"/>
       <c r="F392" s="5"/>
       <c r="G392" s="5"/>
@@ -6347,9 +6340,9 @@
     </row>
     <row r="393" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="4"/>
-      <c r="B393" s="21"/>
-      <c r="C393" s="21"/>
-      <c r="D393" s="21"/>
+      <c r="B393" s="23"/>
+      <c r="C393" s="23"/>
+      <c r="D393" s="23"/>
       <c r="E393" s="4"/>
       <c r="F393" s="5"/>
       <c r="G393" s="5"/>
@@ -6360,9 +6353,9 @@
     </row>
     <row r="394" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="4"/>
-      <c r="B394" s="21"/>
-      <c r="C394" s="21"/>
-      <c r="D394" s="21"/>
+      <c r="B394" s="23"/>
+      <c r="C394" s="23"/>
+      <c r="D394" s="23"/>
       <c r="E394" s="4"/>
       <c r="F394" s="5"/>
       <c r="G394" s="5"/>
@@ -6373,9 +6366,9 @@
     </row>
     <row r="395" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="4"/>
-      <c r="B395" s="21"/>
-      <c r="C395" s="21"/>
-      <c r="D395" s="21"/>
+      <c r="B395" s="23"/>
+      <c r="C395" s="23"/>
+      <c r="D395" s="23"/>
       <c r="E395" s="4"/>
       <c r="F395" s="5"/>
       <c r="G395" s="5"/>
@@ -6386,9 +6379,9 @@
     </row>
     <row r="396" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="4"/>
-      <c r="B396" s="21"/>
-      <c r="C396" s="21"/>
-      <c r="D396" s="21"/>
+      <c r="B396" s="23"/>
+      <c r="C396" s="23"/>
+      <c r="D396" s="23"/>
       <c r="E396" s="4"/>
       <c r="F396" s="5"/>
       <c r="G396" s="5"/>
@@ -6399,9 +6392,9 @@
     </row>
     <row r="397" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="4"/>
-      <c r="B397" s="21"/>
-      <c r="C397" s="21"/>
-      <c r="D397" s="21"/>
+      <c r="B397" s="23"/>
+      <c r="C397" s="23"/>
+      <c r="D397" s="23"/>
       <c r="E397" s="4"/>
       <c r="F397" s="5"/>
       <c r="G397" s="5"/>
@@ -6412,9 +6405,9 @@
     </row>
     <row r="398" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="4"/>
-      <c r="B398" s="21"/>
-      <c r="C398" s="21"/>
-      <c r="D398" s="21"/>
+      <c r="B398" s="23"/>
+      <c r="C398" s="23"/>
+      <c r="D398" s="23"/>
       <c r="E398" s="4"/>
       <c r="F398" s="5"/>
       <c r="G398" s="5"/>
@@ -6425,9 +6418,9 @@
     </row>
     <row r="399" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="4"/>
-      <c r="B399" s="21"/>
-      <c r="C399" s="21"/>
-      <c r="D399" s="21"/>
+      <c r="B399" s="23"/>
+      <c r="C399" s="23"/>
+      <c r="D399" s="23"/>
       <c r="E399" s="4"/>
       <c r="F399" s="5"/>
       <c r="G399" s="5"/>
@@ -6438,9 +6431,9 @@
     </row>
     <row r="400" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="4"/>
-      <c r="B400" s="21"/>
-      <c r="C400" s="21"/>
-      <c r="D400" s="21"/>
+      <c r="B400" s="23"/>
+      <c r="C400" s="23"/>
+      <c r="D400" s="23"/>
       <c r="E400" s="4"/>
       <c r="F400" s="5"/>
       <c r="G400" s="5"/>
@@ -6451,9 +6444,9 @@
     </row>
     <row r="401" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="4"/>
-      <c r="B401" s="21"/>
-      <c r="C401" s="21"/>
-      <c r="D401" s="21"/>
+      <c r="B401" s="23"/>
+      <c r="C401" s="23"/>
+      <c r="D401" s="23"/>
       <c r="E401" s="4"/>
       <c r="F401" s="5"/>
       <c r="G401" s="5"/>
@@ -6464,9 +6457,9 @@
     </row>
     <row r="402" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="4"/>
-      <c r="B402" s="21"/>
-      <c r="C402" s="21"/>
-      <c r="D402" s="21"/>
+      <c r="B402" s="23"/>
+      <c r="C402" s="23"/>
+      <c r="D402" s="23"/>
       <c r="E402" s="4"/>
       <c r="F402" s="5"/>
       <c r="G402" s="5"/>
@@ -6477,9 +6470,9 @@
     </row>
     <row r="403" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="4"/>
-      <c r="B403" s="21"/>
-      <c r="C403" s="21"/>
-      <c r="D403" s="21"/>
+      <c r="B403" s="23"/>
+      <c r="C403" s="23"/>
+      <c r="D403" s="23"/>
       <c r="E403" s="4"/>
       <c r="F403" s="5"/>
       <c r="G403" s="5"/>
@@ -6490,9 +6483,9 @@
     </row>
     <row r="404" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="4"/>
-      <c r="B404" s="21"/>
-      <c r="C404" s="21"/>
-      <c r="D404" s="21"/>
+      <c r="B404" s="23"/>
+      <c r="C404" s="23"/>
+      <c r="D404" s="23"/>
       <c r="E404" s="4"/>
       <c r="F404" s="5"/>
       <c r="G404" s="5"/>
@@ -6503,9 +6496,9 @@
     </row>
     <row r="405" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="4"/>
-      <c r="B405" s="21"/>
-      <c r="C405" s="21"/>
-      <c r="D405" s="21"/>
+      <c r="B405" s="23"/>
+      <c r="C405" s="23"/>
+      <c r="D405" s="23"/>
       <c r="E405" s="4"/>
       <c r="F405" s="5"/>
       <c r="G405" s="5"/>
@@ -6516,9 +6509,9 @@
     </row>
     <row r="406" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="4"/>
-      <c r="B406" s="21"/>
-      <c r="C406" s="21"/>
-      <c r="D406" s="21"/>
+      <c r="B406" s="23"/>
+      <c r="C406" s="23"/>
+      <c r="D406" s="23"/>
       <c r="E406" s="4"/>
       <c r="F406" s="5"/>
       <c r="G406" s="5"/>
@@ -6529,9 +6522,9 @@
     </row>
     <row r="407" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="4"/>
-      <c r="B407" s="21"/>
-      <c r="C407" s="21"/>
-      <c r="D407" s="21"/>
+      <c r="B407" s="23"/>
+      <c r="C407" s="23"/>
+      <c r="D407" s="23"/>
       <c r="E407" s="4"/>
       <c r="F407" s="5"/>
       <c r="G407" s="5"/>
@@ -6542,9 +6535,9 @@
     </row>
     <row r="408" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="4"/>
-      <c r="B408" s="21"/>
-      <c r="C408" s="21"/>
-      <c r="D408" s="21"/>
+      <c r="B408" s="23"/>
+      <c r="C408" s="23"/>
+      <c r="D408" s="23"/>
       <c r="E408" s="4"/>
       <c r="F408" s="5"/>
       <c r="G408" s="5"/>
@@ -6555,9 +6548,9 @@
     </row>
     <row r="409" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="4"/>
-      <c r="B409" s="21"/>
-      <c r="C409" s="21"/>
-      <c r="D409" s="21"/>
+      <c r="B409" s="23"/>
+      <c r="C409" s="23"/>
+      <c r="D409" s="23"/>
       <c r="E409" s="4"/>
       <c r="F409" s="5"/>
       <c r="G409" s="5"/>
@@ -6568,9 +6561,9 @@
     </row>
     <row r="410" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="4"/>
-      <c r="B410" s="21"/>
-      <c r="C410" s="21"/>
-      <c r="D410" s="21"/>
+      <c r="B410" s="23"/>
+      <c r="C410" s="23"/>
+      <c r="D410" s="23"/>
       <c r="E410" s="4"/>
       <c r="F410" s="5"/>
       <c r="G410" s="5"/>
@@ -6581,9 +6574,9 @@
     </row>
     <row r="411" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="4"/>
-      <c r="B411" s="21"/>
-      <c r="C411" s="21"/>
-      <c r="D411" s="21"/>
+      <c r="B411" s="23"/>
+      <c r="C411" s="23"/>
+      <c r="D411" s="23"/>
       <c r="E411" s="4"/>
       <c r="F411" s="5"/>
       <c r="G411" s="5"/>
@@ -6594,9 +6587,9 @@
     </row>
     <row r="412" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="4"/>
-      <c r="B412" s="21"/>
-      <c r="C412" s="21"/>
-      <c r="D412" s="21"/>
+      <c r="B412" s="23"/>
+      <c r="C412" s="23"/>
+      <c r="D412" s="23"/>
       <c r="E412" s="4"/>
       <c r="F412" s="5"/>
       <c r="G412" s="5"/>
@@ -6607,9 +6600,9 @@
     </row>
     <row r="413" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="4"/>
-      <c r="B413" s="21"/>
-      <c r="C413" s="21"/>
-      <c r="D413" s="21"/>
+      <c r="B413" s="23"/>
+      <c r="C413" s="23"/>
+      <c r="D413" s="23"/>
       <c r="E413" s="4"/>
       <c r="F413" s="5"/>
       <c r="G413" s="5"/>
@@ -6620,9 +6613,9 @@
     </row>
     <row r="414" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="4"/>
-      <c r="B414" s="21"/>
-      <c r="C414" s="21"/>
-      <c r="D414" s="21"/>
+      <c r="B414" s="23"/>
+      <c r="C414" s="23"/>
+      <c r="D414" s="23"/>
       <c r="E414" s="4"/>
       <c r="F414" s="5"/>
       <c r="G414" s="5"/>
@@ -6633,9 +6626,9 @@
     </row>
     <row r="415" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="4"/>
-      <c r="B415" s="21"/>
-      <c r="C415" s="21"/>
-      <c r="D415" s="21"/>
+      <c r="B415" s="23"/>
+      <c r="C415" s="23"/>
+      <c r="D415" s="23"/>
       <c r="E415" s="4"/>
       <c r="F415" s="5"/>
       <c r="G415" s="5"/>
@@ -6646,9 +6639,9 @@
     </row>
     <row r="416" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="4"/>
-      <c r="B416" s="21"/>
-      <c r="C416" s="21"/>
-      <c r="D416" s="21"/>
+      <c r="B416" s="23"/>
+      <c r="C416" s="23"/>
+      <c r="D416" s="23"/>
       <c r="E416" s="4"/>
       <c r="F416" s="5"/>
       <c r="G416" s="5"/>
@@ -6659,9 +6652,9 @@
     </row>
     <row r="417" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="4"/>
-      <c r="B417" s="21"/>
-      <c r="C417" s="21"/>
-      <c r="D417" s="21"/>
+      <c r="B417" s="23"/>
+      <c r="C417" s="23"/>
+      <c r="D417" s="23"/>
       <c r="E417" s="4"/>
       <c r="F417" s="5"/>
       <c r="G417" s="5"/>
@@ -6672,9 +6665,9 @@
     </row>
     <row r="418" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="4"/>
-      <c r="B418" s="21"/>
-      <c r="C418" s="21"/>
-      <c r="D418" s="21"/>
+      <c r="B418" s="23"/>
+      <c r="C418" s="23"/>
+      <c r="D418" s="23"/>
       <c r="E418" s="4"/>
       <c r="F418" s="5"/>
       <c r="G418" s="5"/>
@@ -6685,9 +6678,9 @@
     </row>
     <row r="419" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="4"/>
-      <c r="B419" s="21"/>
-      <c r="C419" s="21"/>
-      <c r="D419" s="21"/>
+      <c r="B419" s="23"/>
+      <c r="C419" s="23"/>
+      <c r="D419" s="23"/>
       <c r="E419" s="4"/>
       <c r="F419" s="5"/>
       <c r="G419" s="5"/>
@@ -6698,9 +6691,9 @@
     </row>
     <row r="420" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="4"/>
-      <c r="B420" s="21"/>
-      <c r="C420" s="21"/>
-      <c r="D420" s="21"/>
+      <c r="B420" s="23"/>
+      <c r="C420" s="23"/>
+      <c r="D420" s="23"/>
       <c r="E420" s="4"/>
       <c r="F420" s="5"/>
       <c r="G420" s="5"/>
@@ -6711,9 +6704,9 @@
     </row>
     <row r="421" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="4"/>
-      <c r="B421" s="21"/>
-      <c r="C421" s="21"/>
-      <c r="D421" s="21"/>
+      <c r="B421" s="23"/>
+      <c r="C421" s="23"/>
+      <c r="D421" s="23"/>
       <c r="E421" s="4"/>
       <c r="F421" s="5"/>
       <c r="G421" s="5"/>
@@ -6724,9 +6717,9 @@
     </row>
     <row r="422" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="4"/>
-      <c r="B422" s="21"/>
-      <c r="C422" s="21"/>
-      <c r="D422" s="21"/>
+      <c r="B422" s="23"/>
+      <c r="C422" s="23"/>
+      <c r="D422" s="23"/>
       <c r="E422" s="4"/>
       <c r="F422" s="5"/>
       <c r="G422" s="5"/>
@@ -6737,9 +6730,9 @@
     </row>
     <row r="423" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="4"/>
-      <c r="B423" s="21"/>
-      <c r="C423" s="21"/>
-      <c r="D423" s="21"/>
+      <c r="B423" s="23"/>
+      <c r="C423" s="23"/>
+      <c r="D423" s="23"/>
       <c r="E423" s="4"/>
       <c r="F423" s="5"/>
       <c r="G423" s="5"/>
@@ -6750,9 +6743,9 @@
     </row>
     <row r="424" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="4"/>
-      <c r="B424" s="21"/>
-      <c r="C424" s="21"/>
-      <c r="D424" s="21"/>
+      <c r="B424" s="23"/>
+      <c r="C424" s="23"/>
+      <c r="D424" s="23"/>
       <c r="E424" s="4"/>
       <c r="F424" s="5"/>
       <c r="G424" s="5"/>
@@ -6763,9 +6756,9 @@
     </row>
     <row r="425" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="4"/>
-      <c r="B425" s="21"/>
-      <c r="C425" s="21"/>
-      <c r="D425" s="21"/>
+      <c r="B425" s="23"/>
+      <c r="C425" s="23"/>
+      <c r="D425" s="23"/>
       <c r="E425" s="4"/>
       <c r="F425" s="5"/>
       <c r="G425" s="5"/>
@@ -6776,9 +6769,9 @@
     </row>
     <row r="426" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="4"/>
-      <c r="B426" s="21"/>
-      <c r="C426" s="21"/>
-      <c r="D426" s="21"/>
+      <c r="B426" s="23"/>
+      <c r="C426" s="23"/>
+      <c r="D426" s="23"/>
       <c r="E426" s="4"/>
       <c r="F426" s="5"/>
       <c r="G426" s="5"/>
@@ -6789,9 +6782,9 @@
     </row>
     <row r="427" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="4"/>
-      <c r="B427" s="21"/>
-      <c r="C427" s="21"/>
-      <c r="D427" s="21"/>
+      <c r="B427" s="23"/>
+      <c r="C427" s="23"/>
+      <c r="D427" s="23"/>
       <c r="E427" s="4"/>
       <c r="F427" s="5"/>
       <c r="G427" s="5"/>
@@ -6802,9 +6795,9 @@
     </row>
     <row r="428" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="4"/>
-      <c r="B428" s="21"/>
-      <c r="C428" s="21"/>
-      <c r="D428" s="21"/>
+      <c r="B428" s="23"/>
+      <c r="C428" s="23"/>
+      <c r="D428" s="23"/>
       <c r="E428" s="4"/>
       <c r="F428" s="5"/>
       <c r="G428" s="5"/>
@@ -6815,9 +6808,9 @@
     </row>
     <row r="429" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="4"/>
-      <c r="B429" s="21"/>
-      <c r="C429" s="21"/>
-      <c r="D429" s="21"/>
+      <c r="B429" s="23"/>
+      <c r="C429" s="23"/>
+      <c r="D429" s="23"/>
       <c r="E429" s="4"/>
       <c r="F429" s="5"/>
       <c r="G429" s="5"/>
@@ -6828,9 +6821,9 @@
     </row>
     <row r="430" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="4"/>
-      <c r="B430" s="21"/>
-      <c r="C430" s="21"/>
-      <c r="D430" s="21"/>
+      <c r="B430" s="23"/>
+      <c r="C430" s="23"/>
+      <c r="D430" s="23"/>
       <c r="E430" s="4"/>
       <c r="F430" s="5"/>
       <c r="G430" s="5"/>
@@ -6841,9 +6834,9 @@
     </row>
     <row r="431" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="4"/>
-      <c r="B431" s="21"/>
-      <c r="C431" s="21"/>
-      <c r="D431" s="21"/>
+      <c r="B431" s="23"/>
+      <c r="C431" s="23"/>
+      <c r="D431" s="23"/>
       <c r="E431" s="4"/>
       <c r="F431" s="5"/>
       <c r="G431" s="5"/>
@@ -6854,9 +6847,9 @@
     </row>
     <row r="432" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="4"/>
-      <c r="B432" s="21"/>
-      <c r="C432" s="21"/>
-      <c r="D432" s="21"/>
+      <c r="B432" s="23"/>
+      <c r="C432" s="23"/>
+      <c r="D432" s="23"/>
       <c r="E432" s="4"/>
       <c r="F432" s="5"/>
       <c r="G432" s="5"/>
@@ -6867,9 +6860,9 @@
     </row>
     <row r="433" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="4"/>
-      <c r="B433" s="21"/>
-      <c r="C433" s="21"/>
-      <c r="D433" s="21"/>
+      <c r="B433" s="23"/>
+      <c r="C433" s="23"/>
+      <c r="D433" s="23"/>
       <c r="E433" s="4"/>
       <c r="F433" s="5"/>
       <c r="G433" s="5"/>
@@ -6880,9 +6873,9 @@
     </row>
     <row r="434" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="4"/>
-      <c r="B434" s="21"/>
-      <c r="C434" s="21"/>
-      <c r="D434" s="21"/>
+      <c r="B434" s="23"/>
+      <c r="C434" s="23"/>
+      <c r="D434" s="23"/>
       <c r="E434" s="4"/>
       <c r="F434" s="5"/>
       <c r="G434" s="5"/>
@@ -6893,9 +6886,9 @@
     </row>
     <row r="435" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="4"/>
-      <c r="B435" s="21"/>
-      <c r="C435" s="21"/>
-      <c r="D435" s="21"/>
+      <c r="B435" s="23"/>
+      <c r="C435" s="23"/>
+      <c r="D435" s="23"/>
       <c r="E435" s="4"/>
       <c r="F435" s="5"/>
       <c r="G435" s="5"/>
@@ -6906,9 +6899,9 @@
     </row>
     <row r="436" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="4"/>
-      <c r="B436" s="21"/>
-      <c r="C436" s="21"/>
-      <c r="D436" s="21"/>
+      <c r="B436" s="23"/>
+      <c r="C436" s="23"/>
+      <c r="D436" s="23"/>
       <c r="E436" s="4"/>
       <c r="F436" s="5"/>
       <c r="G436" s="5"/>
@@ -6919,9 +6912,9 @@
     </row>
     <row r="437" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="4"/>
-      <c r="B437" s="21"/>
-      <c r="C437" s="21"/>
-      <c r="D437" s="21"/>
+      <c r="B437" s="23"/>
+      <c r="C437" s="23"/>
+      <c r="D437" s="23"/>
       <c r="E437" s="4"/>
       <c r="F437" s="5"/>
       <c r="G437" s="5"/>
@@ -6932,9 +6925,9 @@
     </row>
     <row r="438" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="4"/>
-      <c r="B438" s="21"/>
-      <c r="C438" s="21"/>
-      <c r="D438" s="21"/>
+      <c r="B438" s="23"/>
+      <c r="C438" s="23"/>
+      <c r="D438" s="23"/>
       <c r="E438" s="4"/>
       <c r="F438" s="5"/>
       <c r="G438" s="5"/>
@@ -6945,9 +6938,9 @@
     </row>
     <row r="439" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="4"/>
-      <c r="B439" s="21"/>
-      <c r="C439" s="21"/>
-      <c r="D439" s="21"/>
+      <c r="B439" s="23"/>
+      <c r="C439" s="23"/>
+      <c r="D439" s="23"/>
       <c r="E439" s="4"/>
       <c r="F439" s="5"/>
       <c r="G439" s="5"/>
@@ -6958,9 +6951,9 @@
     </row>
     <row r="440" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="4"/>
-      <c r="B440" s="21"/>
-      <c r="C440" s="21"/>
-      <c r="D440" s="21"/>
+      <c r="B440" s="23"/>
+      <c r="C440" s="23"/>
+      <c r="D440" s="23"/>
       <c r="E440" s="4"/>
       <c r="F440" s="5"/>
       <c r="G440" s="5"/>
@@ -6971,9 +6964,9 @@
     </row>
     <row r="441" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="4"/>
-      <c r="B441" s="21"/>
-      <c r="C441" s="21"/>
-      <c r="D441" s="21"/>
+      <c r="B441" s="23"/>
+      <c r="C441" s="23"/>
+      <c r="D441" s="23"/>
       <c r="E441" s="4"/>
       <c r="F441" s="5"/>
       <c r="G441" s="5"/>
@@ -6984,9 +6977,9 @@
     </row>
     <row r="442" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="4"/>
-      <c r="B442" s="21"/>
-      <c r="C442" s="21"/>
-      <c r="D442" s="21"/>
+      <c r="B442" s="23"/>
+      <c r="C442" s="23"/>
+      <c r="D442" s="23"/>
       <c r="E442" s="4"/>
       <c r="F442" s="5"/>
       <c r="G442" s="5"/>
@@ -6997,9 +6990,9 @@
     </row>
     <row r="443" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="4"/>
-      <c r="B443" s="21"/>
-      <c r="C443" s="21"/>
-      <c r="D443" s="21"/>
+      <c r="B443" s="23"/>
+      <c r="C443" s="23"/>
+      <c r="D443" s="23"/>
       <c r="E443" s="4"/>
       <c r="F443" s="5"/>
       <c r="G443" s="5"/>
@@ -7010,9 +7003,9 @@
     </row>
     <row r="444" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="4"/>
-      <c r="B444" s="21"/>
-      <c r="C444" s="21"/>
-      <c r="D444" s="21"/>
+      <c r="B444" s="23"/>
+      <c r="C444" s="23"/>
+      <c r="D444" s="23"/>
       <c r="E444" s="4"/>
       <c r="F444" s="5"/>
       <c r="G444" s="5"/>
@@ -7023,9 +7016,9 @@
     </row>
     <row r="445" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="4"/>
-      <c r="B445" s="21"/>
-      <c r="C445" s="21"/>
-      <c r="D445" s="21"/>
+      <c r="B445" s="23"/>
+      <c r="C445" s="23"/>
+      <c r="D445" s="23"/>
       <c r="E445" s="4"/>
       <c r="F445" s="5"/>
       <c r="G445" s="5"/>
@@ -7036,9 +7029,9 @@
     </row>
     <row r="446" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="4"/>
-      <c r="B446" s="21"/>
-      <c r="C446" s="21"/>
-      <c r="D446" s="21"/>
+      <c r="B446" s="23"/>
+      <c r="C446" s="23"/>
+      <c r="D446" s="23"/>
       <c r="E446" s="4"/>
       <c r="F446" s="5"/>
       <c r="G446" s="5"/>
@@ -7049,9 +7042,9 @@
     </row>
     <row r="447" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="4"/>
-      <c r="B447" s="21"/>
-      <c r="C447" s="21"/>
-      <c r="D447" s="21"/>
+      <c r="B447" s="23"/>
+      <c r="C447" s="23"/>
+      <c r="D447" s="23"/>
       <c r="E447" s="4"/>
       <c r="F447" s="5"/>
       <c r="G447" s="5"/>
@@ -7062,9 +7055,9 @@
     </row>
     <row r="448" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="4"/>
-      <c r="B448" s="21"/>
-      <c r="C448" s="21"/>
-      <c r="D448" s="21"/>
+      <c r="B448" s="23"/>
+      <c r="C448" s="23"/>
+      <c r="D448" s="23"/>
       <c r="E448" s="4"/>
       <c r="F448" s="5"/>
       <c r="G448" s="5"/>
@@ -7075,9 +7068,9 @@
     </row>
     <row r="449" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="4"/>
-      <c r="B449" s="21"/>
-      <c r="C449" s="21"/>
-      <c r="D449" s="21"/>
+      <c r="B449" s="23"/>
+      <c r="C449" s="23"/>
+      <c r="D449" s="23"/>
       <c r="E449" s="4"/>
       <c r="F449" s="5"/>
       <c r="G449" s="5"/>
@@ -7088,9 +7081,9 @@
     </row>
     <row r="450" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="4"/>
-      <c r="B450" s="21"/>
-      <c r="C450" s="21"/>
-      <c r="D450" s="21"/>
+      <c r="B450" s="23"/>
+      <c r="C450" s="23"/>
+      <c r="D450" s="23"/>
       <c r="E450" s="4"/>
       <c r="F450" s="5"/>
       <c r="G450" s="5"/>
@@ -7101,9 +7094,9 @@
     </row>
     <row r="451" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="4"/>
-      <c r="B451" s="21"/>
-      <c r="C451" s="21"/>
-      <c r="D451" s="21"/>
+      <c r="B451" s="23"/>
+      <c r="C451" s="23"/>
+      <c r="D451" s="23"/>
       <c r="E451" s="4"/>
       <c r="F451" s="5"/>
       <c r="G451" s="5"/>
@@ -7114,9 +7107,9 @@
     </row>
     <row r="452" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="4"/>
-      <c r="B452" s="21"/>
-      <c r="C452" s="21"/>
-      <c r="D452" s="21"/>
+      <c r="B452" s="23"/>
+      <c r="C452" s="23"/>
+      <c r="D452" s="23"/>
       <c r="E452" s="4"/>
       <c r="F452" s="5"/>
       <c r="G452" s="5"/>
@@ -7127,9 +7120,9 @@
     </row>
     <row r="453" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="4"/>
-      <c r="B453" s="21"/>
-      <c r="C453" s="21"/>
-      <c r="D453" s="21"/>
+      <c r="B453" s="23"/>
+      <c r="C453" s="23"/>
+      <c r="D453" s="23"/>
       <c r="E453" s="4"/>
       <c r="F453" s="5"/>
       <c r="G453" s="5"/>
@@ -7140,9 +7133,9 @@
     </row>
     <row r="454" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="4"/>
-      <c r="B454" s="21"/>
-      <c r="C454" s="21"/>
-      <c r="D454" s="21"/>
+      <c r="B454" s="23"/>
+      <c r="C454" s="23"/>
+      <c r="D454" s="23"/>
       <c r="E454" s="4"/>
       <c r="F454" s="5"/>
       <c r="G454" s="5"/>
@@ -7153,9 +7146,9 @@
     </row>
     <row r="455" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="4"/>
-      <c r="B455" s="21"/>
-      <c r="C455" s="21"/>
-      <c r="D455" s="21"/>
+      <c r="B455" s="23"/>
+      <c r="C455" s="23"/>
+      <c r="D455" s="23"/>
       <c r="E455" s="4"/>
       <c r="F455" s="5"/>
       <c r="G455" s="5"/>
@@ -7166,9 +7159,9 @@
     </row>
     <row r="456" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="4"/>
-      <c r="B456" s="21"/>
-      <c r="C456" s="21"/>
-      <c r="D456" s="21"/>
+      <c r="B456" s="23"/>
+      <c r="C456" s="23"/>
+      <c r="D456" s="23"/>
       <c r="E456" s="4"/>
       <c r="F456" s="5"/>
       <c r="G456" s="5"/>
@@ -7179,9 +7172,9 @@
     </row>
     <row r="457" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="4"/>
-      <c r="B457" s="21"/>
-      <c r="C457" s="21"/>
-      <c r="D457" s="21"/>
+      <c r="B457" s="23"/>
+      <c r="C457" s="23"/>
+      <c r="D457" s="23"/>
       <c r="E457" s="4"/>
       <c r="F457" s="5"/>
       <c r="G457" s="5"/>
@@ -7192,9 +7185,9 @@
     </row>
     <row r="458" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="4"/>
-      <c r="B458" s="21"/>
-      <c r="C458" s="21"/>
-      <c r="D458" s="21"/>
+      <c r="B458" s="23"/>
+      <c r="C458" s="23"/>
+      <c r="D458" s="23"/>
       <c r="E458" s="4"/>
       <c r="F458" s="5"/>
       <c r="G458" s="5"/>
@@ -7205,9 +7198,9 @@
     </row>
     <row r="459" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="4"/>
-      <c r="B459" s="21"/>
-      <c r="C459" s="21"/>
-      <c r="D459" s="21"/>
+      <c r="B459" s="23"/>
+      <c r="C459" s="23"/>
+      <c r="D459" s="23"/>
       <c r="E459" s="4"/>
       <c r="F459" s="5"/>
       <c r="G459" s="5"/>
@@ -7218,9 +7211,9 @@
     </row>
     <row r="460" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="4"/>
-      <c r="B460" s="21"/>
-      <c r="C460" s="21"/>
-      <c r="D460" s="21"/>
+      <c r="B460" s="23"/>
+      <c r="C460" s="23"/>
+      <c r="D460" s="23"/>
       <c r="E460" s="4"/>
       <c r="F460" s="5"/>
       <c r="G460" s="5"/>
@@ -7231,9 +7224,9 @@
     </row>
     <row r="461" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="4"/>
-      <c r="B461" s="21"/>
-      <c r="C461" s="21"/>
-      <c r="D461" s="21"/>
+      <c r="B461" s="23"/>
+      <c r="C461" s="23"/>
+      <c r="D461" s="23"/>
       <c r="E461" s="4"/>
       <c r="F461" s="5"/>
       <c r="G461" s="5"/>
@@ -7244,9 +7237,9 @@
     </row>
     <row r="462" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="4"/>
-      <c r="B462" s="21"/>
-      <c r="C462" s="21"/>
-      <c r="D462" s="21"/>
+      <c r="B462" s="23"/>
+      <c r="C462" s="23"/>
+      <c r="D462" s="23"/>
       <c r="E462" s="4"/>
       <c r="F462" s="5"/>
       <c r="G462" s="5"/>
@@ -7257,9 +7250,9 @@
     </row>
     <row r="463" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="4"/>
-      <c r="B463" s="21"/>
-      <c r="C463" s="21"/>
-      <c r="D463" s="21"/>
+      <c r="B463" s="23"/>
+      <c r="C463" s="23"/>
+      <c r="D463" s="23"/>
       <c r="E463" s="4"/>
       <c r="F463" s="5"/>
       <c r="G463" s="5"/>
@@ -7270,9 +7263,9 @@
     </row>
     <row r="464" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="4"/>
-      <c r="B464" s="21"/>
-      <c r="C464" s="21"/>
-      <c r="D464" s="21"/>
+      <c r="B464" s="23"/>
+      <c r="C464" s="23"/>
+      <c r="D464" s="23"/>
       <c r="E464" s="4"/>
       <c r="F464" s="5"/>
       <c r="G464" s="5"/>
@@ -7283,9 +7276,9 @@
     </row>
     <row r="465" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="4"/>
-      <c r="B465" s="21"/>
-      <c r="C465" s="21"/>
-      <c r="D465" s="21"/>
+      <c r="B465" s="23"/>
+      <c r="C465" s="23"/>
+      <c r="D465" s="23"/>
       <c r="E465" s="4"/>
       <c r="F465" s="5"/>
       <c r="G465" s="5"/>
@@ -7296,9 +7289,9 @@
     </row>
     <row r="466" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="4"/>
-      <c r="B466" s="21"/>
-      <c r="C466" s="21"/>
-      <c r="D466" s="21"/>
+      <c r="B466" s="23"/>
+      <c r="C466" s="23"/>
+      <c r="D466" s="23"/>
       <c r="E466" s="4"/>
       <c r="F466" s="5"/>
       <c r="G466" s="5"/>
@@ -7309,9 +7302,9 @@
     </row>
     <row r="467" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="4"/>
-      <c r="B467" s="21"/>
-      <c r="C467" s="21"/>
-      <c r="D467" s="21"/>
+      <c r="B467" s="23"/>
+      <c r="C467" s="23"/>
+      <c r="D467" s="23"/>
       <c r="E467" s="4"/>
       <c r="F467" s="5"/>
       <c r="G467" s="5"/>
@@ -7322,9 +7315,9 @@
     </row>
     <row r="468" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="4"/>
-      <c r="B468" s="21"/>
-      <c r="C468" s="21"/>
-      <c r="D468" s="21"/>
+      <c r="B468" s="23"/>
+      <c r="C468" s="23"/>
+      <c r="D468" s="23"/>
       <c r="E468" s="4"/>
       <c r="F468" s="5"/>
       <c r="G468" s="5"/>
@@ -7335,9 +7328,9 @@
     </row>
     <row r="469" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="4"/>
-      <c r="B469" s="21"/>
-      <c r="C469" s="21"/>
-      <c r="D469" s="21"/>
+      <c r="B469" s="23"/>
+      <c r="C469" s="23"/>
+      <c r="D469" s="23"/>
       <c r="E469" s="4"/>
       <c r="F469" s="5"/>
       <c r="G469" s="5"/>
@@ -7348,9 +7341,9 @@
     </row>
     <row r="470" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="4"/>
-      <c r="B470" s="21"/>
-      <c r="C470" s="21"/>
-      <c r="D470" s="21"/>
+      <c r="B470" s="23"/>
+      <c r="C470" s="23"/>
+      <c r="D470" s="23"/>
       <c r="E470" s="4"/>
       <c r="F470" s="5"/>
       <c r="G470" s="5"/>
@@ -7361,9 +7354,9 @@
     </row>
     <row r="471" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="4"/>
-      <c r="B471" s="21"/>
-      <c r="C471" s="21"/>
-      <c r="D471" s="21"/>
+      <c r="B471" s="23"/>
+      <c r="C471" s="23"/>
+      <c r="D471" s="23"/>
       <c r="E471" s="4"/>
       <c r="F471" s="5"/>
       <c r="G471" s="5"/>
@@ -7374,9 +7367,9 @@
     </row>
     <row r="472" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="4"/>
-      <c r="B472" s="21"/>
-      <c r="C472" s="21"/>
-      <c r="D472" s="21"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
+      <c r="D472" s="23"/>
       <c r="E472" s="4"/>
       <c r="F472" s="5"/>
       <c r="G472" s="5"/>
@@ -7387,9 +7380,9 @@
     </row>
     <row r="473" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="4"/>
-      <c r="B473" s="21"/>
-      <c r="C473" s="21"/>
-      <c r="D473" s="21"/>
+      <c r="B473" s="23"/>
+      <c r="C473" s="23"/>
+      <c r="D473" s="23"/>
       <c r="E473" s="4"/>
       <c r="F473" s="5"/>
       <c r="G473" s="5"/>
@@ -7400,9 +7393,9 @@
     </row>
     <row r="474" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="4"/>
-      <c r="B474" s="21"/>
-      <c r="C474" s="21"/>
-      <c r="D474" s="21"/>
+      <c r="B474" s="23"/>
+      <c r="C474" s="23"/>
+      <c r="D474" s="23"/>
       <c r="E474" s="4"/>
       <c r="F474" s="5"/>
       <c r="G474" s="5"/>
@@ -7413,9 +7406,9 @@
     </row>
     <row r="475" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="4"/>
-      <c r="B475" s="21"/>
-      <c r="C475" s="21"/>
-      <c r="D475" s="21"/>
+      <c r="B475" s="23"/>
+      <c r="C475" s="23"/>
+      <c r="D475" s="23"/>
       <c r="E475" s="4"/>
       <c r="F475" s="5"/>
       <c r="G475" s="5"/>
@@ -7426,9 +7419,9 @@
     </row>
     <row r="476" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="4"/>
-      <c r="B476" s="21"/>
-      <c r="C476" s="21"/>
-      <c r="D476" s="21"/>
+      <c r="B476" s="23"/>
+      <c r="C476" s="23"/>
+      <c r="D476" s="23"/>
       <c r="E476" s="4"/>
       <c r="F476" s="5"/>
       <c r="G476" s="5"/>
@@ -7439,9 +7432,9 @@
     </row>
     <row r="477" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="4"/>
-      <c r="B477" s="21"/>
-      <c r="C477" s="21"/>
-      <c r="D477" s="21"/>
+      <c r="B477" s="23"/>
+      <c r="C477" s="23"/>
+      <c r="D477" s="23"/>
       <c r="E477" s="4"/>
       <c r="F477" s="5"/>
       <c r="G477" s="5"/>
@@ -7452,9 +7445,9 @@
     </row>
     <row r="478" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="4"/>
-      <c r="B478" s="21"/>
-      <c r="C478" s="21"/>
-      <c r="D478" s="21"/>
+      <c r="B478" s="23"/>
+      <c r="C478" s="23"/>
+      <c r="D478" s="23"/>
       <c r="E478" s="4"/>
       <c r="F478" s="5"/>
       <c r="G478" s="5"/>
@@ -7465,9 +7458,9 @@
     </row>
     <row r="479" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="4"/>
-      <c r="B479" s="21"/>
-      <c r="C479" s="21"/>
-      <c r="D479" s="21"/>
+      <c r="B479" s="23"/>
+      <c r="C479" s="23"/>
+      <c r="D479" s="23"/>
       <c r="E479" s="4"/>
       <c r="F479" s="5"/>
       <c r="G479" s="5"/>
@@ -7478,9 +7471,9 @@
     </row>
     <row r="480" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="4"/>
-      <c r="B480" s="21"/>
-      <c r="C480" s="21"/>
-      <c r="D480" s="21"/>
+      <c r="B480" s="23"/>
+      <c r="C480" s="23"/>
+      <c r="D480" s="23"/>
       <c r="E480" s="4"/>
       <c r="F480" s="5"/>
       <c r="G480" s="5"/>
@@ -7491,9 +7484,9 @@
     </row>
     <row r="481" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="4"/>
-      <c r="B481" s="21"/>
-      <c r="C481" s="21"/>
-      <c r="D481" s="21"/>
+      <c r="B481" s="23"/>
+      <c r="C481" s="23"/>
+      <c r="D481" s="23"/>
       <c r="E481" s="4"/>
       <c r="F481" s="5"/>
       <c r="G481" s="5"/>
@@ -7504,9 +7497,9 @@
     </row>
     <row r="482" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="4"/>
-      <c r="B482" s="21"/>
-      <c r="C482" s="21"/>
-      <c r="D482" s="21"/>
+      <c r="B482" s="23"/>
+      <c r="C482" s="23"/>
+      <c r="D482" s="23"/>
       <c r="E482" s="4"/>
       <c r="F482" s="5"/>
       <c r="G482" s="5"/>
@@ -7517,9 +7510,9 @@
     </row>
     <row r="483" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="4"/>
-      <c r="B483" s="21"/>
-      <c r="C483" s="21"/>
-      <c r="D483" s="21"/>
+      <c r="B483" s="23"/>
+      <c r="C483" s="23"/>
+      <c r="D483" s="23"/>
       <c r="E483" s="4"/>
       <c r="F483" s="5"/>
       <c r="G483" s="5"/>
@@ -7531,471 +7524,6 @@
     <row r="484" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="482">
-    <mergeCell ref="B479:D479"/>
-    <mergeCell ref="B480:D480"/>
-    <mergeCell ref="B481:D481"/>
-    <mergeCell ref="B482:D482"/>
-    <mergeCell ref="B483:D483"/>
-    <mergeCell ref="B473:D473"/>
-    <mergeCell ref="B474:D474"/>
-    <mergeCell ref="B475:D475"/>
-    <mergeCell ref="B476:D476"/>
-    <mergeCell ref="B477:D477"/>
-    <mergeCell ref="B478:D478"/>
-    <mergeCell ref="B467:D467"/>
-    <mergeCell ref="B468:D468"/>
-    <mergeCell ref="B469:D469"/>
-    <mergeCell ref="B470:D470"/>
-    <mergeCell ref="B471:D471"/>
-    <mergeCell ref="B472:D472"/>
-    <mergeCell ref="B461:D461"/>
-    <mergeCell ref="B462:D462"/>
-    <mergeCell ref="B463:D463"/>
-    <mergeCell ref="B464:D464"/>
-    <mergeCell ref="B465:D465"/>
-    <mergeCell ref="B466:D466"/>
-    <mergeCell ref="B455:D455"/>
-    <mergeCell ref="B456:D456"/>
-    <mergeCell ref="B457:D457"/>
-    <mergeCell ref="B458:D458"/>
-    <mergeCell ref="B459:D459"/>
-    <mergeCell ref="B460:D460"/>
-    <mergeCell ref="B449:D449"/>
-    <mergeCell ref="B450:D450"/>
-    <mergeCell ref="B451:D451"/>
-    <mergeCell ref="B452:D452"/>
-    <mergeCell ref="B453:D453"/>
-    <mergeCell ref="B454:D454"/>
-    <mergeCell ref="B443:D443"/>
-    <mergeCell ref="B444:D444"/>
-    <mergeCell ref="B445:D445"/>
-    <mergeCell ref="B446:D446"/>
-    <mergeCell ref="B447:D447"/>
-    <mergeCell ref="B448:D448"/>
-    <mergeCell ref="B437:D437"/>
-    <mergeCell ref="B438:D438"/>
-    <mergeCell ref="B439:D439"/>
-    <mergeCell ref="B440:D440"/>
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="B442:D442"/>
-    <mergeCell ref="B431:D431"/>
-    <mergeCell ref="B432:D432"/>
-    <mergeCell ref="B433:D433"/>
-    <mergeCell ref="B434:D434"/>
-    <mergeCell ref="B435:D435"/>
-    <mergeCell ref="B436:D436"/>
-    <mergeCell ref="B425:D425"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="B427:D427"/>
-    <mergeCell ref="B428:D428"/>
-    <mergeCell ref="B429:D429"/>
-    <mergeCell ref="B430:D430"/>
-    <mergeCell ref="B419:D419"/>
-    <mergeCell ref="B420:D420"/>
-    <mergeCell ref="B421:D421"/>
-    <mergeCell ref="B422:D422"/>
-    <mergeCell ref="B423:D423"/>
-    <mergeCell ref="B424:D424"/>
-    <mergeCell ref="B413:D413"/>
-    <mergeCell ref="B414:D414"/>
-    <mergeCell ref="B415:D415"/>
-    <mergeCell ref="B416:D416"/>
-    <mergeCell ref="B417:D417"/>
-    <mergeCell ref="B418:D418"/>
-    <mergeCell ref="B407:D407"/>
-    <mergeCell ref="B408:D408"/>
-    <mergeCell ref="B409:D409"/>
-    <mergeCell ref="B410:D410"/>
-    <mergeCell ref="B411:D411"/>
-    <mergeCell ref="B412:D412"/>
-    <mergeCell ref="B401:D401"/>
-    <mergeCell ref="B402:D402"/>
-    <mergeCell ref="B403:D403"/>
-    <mergeCell ref="B404:D404"/>
-    <mergeCell ref="B405:D405"/>
-    <mergeCell ref="B406:D406"/>
-    <mergeCell ref="B395:D395"/>
-    <mergeCell ref="B396:D396"/>
-    <mergeCell ref="B397:D397"/>
-    <mergeCell ref="B398:D398"/>
-    <mergeCell ref="B399:D399"/>
-    <mergeCell ref="B400:D400"/>
-    <mergeCell ref="B389:D389"/>
-    <mergeCell ref="B390:D390"/>
-    <mergeCell ref="B391:D391"/>
-    <mergeCell ref="B392:D392"/>
-    <mergeCell ref="B393:D393"/>
-    <mergeCell ref="B394:D394"/>
-    <mergeCell ref="B383:D383"/>
-    <mergeCell ref="B384:D384"/>
-    <mergeCell ref="B385:D385"/>
-    <mergeCell ref="B386:D386"/>
-    <mergeCell ref="B387:D387"/>
-    <mergeCell ref="B388:D388"/>
-    <mergeCell ref="B377:D377"/>
-    <mergeCell ref="B378:D378"/>
-    <mergeCell ref="B379:D379"/>
-    <mergeCell ref="B380:D380"/>
-    <mergeCell ref="B381:D381"/>
-    <mergeCell ref="B382:D382"/>
-    <mergeCell ref="B371:D371"/>
-    <mergeCell ref="B372:D372"/>
-    <mergeCell ref="B373:D373"/>
-    <mergeCell ref="B374:D374"/>
-    <mergeCell ref="B375:D375"/>
-    <mergeCell ref="B376:D376"/>
-    <mergeCell ref="B365:D365"/>
-    <mergeCell ref="B366:D366"/>
-    <mergeCell ref="B367:D367"/>
-    <mergeCell ref="B368:D368"/>
-    <mergeCell ref="B369:D369"/>
-    <mergeCell ref="B370:D370"/>
-    <mergeCell ref="B359:D359"/>
-    <mergeCell ref="B360:D360"/>
-    <mergeCell ref="B361:D361"/>
-    <mergeCell ref="B362:D362"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="B364:D364"/>
-    <mergeCell ref="B353:D353"/>
-    <mergeCell ref="B354:D354"/>
-    <mergeCell ref="B355:D355"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="B357:D357"/>
-    <mergeCell ref="B358:D358"/>
-    <mergeCell ref="B347:D347"/>
-    <mergeCell ref="B348:D348"/>
-    <mergeCell ref="B349:D349"/>
-    <mergeCell ref="B350:D350"/>
-    <mergeCell ref="B351:D351"/>
-    <mergeCell ref="B352:D352"/>
-    <mergeCell ref="B341:D341"/>
-    <mergeCell ref="B342:D342"/>
-    <mergeCell ref="B343:D343"/>
-    <mergeCell ref="B344:D344"/>
-    <mergeCell ref="B345:D345"/>
-    <mergeCell ref="B346:D346"/>
-    <mergeCell ref="B335:D335"/>
-    <mergeCell ref="B336:D336"/>
-    <mergeCell ref="B337:D337"/>
-    <mergeCell ref="B338:D338"/>
-    <mergeCell ref="B339:D339"/>
-    <mergeCell ref="B340:D340"/>
-    <mergeCell ref="B329:D329"/>
-    <mergeCell ref="B330:D330"/>
-    <mergeCell ref="B331:D331"/>
-    <mergeCell ref="B332:D332"/>
-    <mergeCell ref="B333:D333"/>
-    <mergeCell ref="B334:D334"/>
-    <mergeCell ref="B323:D323"/>
-    <mergeCell ref="B324:D324"/>
-    <mergeCell ref="B325:D325"/>
-    <mergeCell ref="B326:D326"/>
-    <mergeCell ref="B327:D327"/>
-    <mergeCell ref="B328:D328"/>
-    <mergeCell ref="B317:D317"/>
-    <mergeCell ref="B318:D318"/>
-    <mergeCell ref="B319:D319"/>
-    <mergeCell ref="B320:D320"/>
-    <mergeCell ref="B321:D321"/>
-    <mergeCell ref="B322:D322"/>
-    <mergeCell ref="B311:D311"/>
-    <mergeCell ref="B312:D312"/>
-    <mergeCell ref="B313:D313"/>
-    <mergeCell ref="B314:D314"/>
-    <mergeCell ref="B315:D315"/>
-    <mergeCell ref="B316:D316"/>
-    <mergeCell ref="B305:D305"/>
-    <mergeCell ref="B306:D306"/>
-    <mergeCell ref="B307:D307"/>
-    <mergeCell ref="B308:D308"/>
-    <mergeCell ref="B309:D309"/>
-    <mergeCell ref="B310:D310"/>
-    <mergeCell ref="B299:D299"/>
-    <mergeCell ref="B300:D300"/>
-    <mergeCell ref="B301:D301"/>
-    <mergeCell ref="B302:D302"/>
-    <mergeCell ref="B303:D303"/>
-    <mergeCell ref="B304:D304"/>
-    <mergeCell ref="B293:D293"/>
-    <mergeCell ref="B294:D294"/>
-    <mergeCell ref="B295:D295"/>
-    <mergeCell ref="B296:D296"/>
-    <mergeCell ref="B297:D297"/>
-    <mergeCell ref="B298:D298"/>
-    <mergeCell ref="B287:D287"/>
-    <mergeCell ref="B288:D288"/>
-    <mergeCell ref="B289:D289"/>
-    <mergeCell ref="B290:D290"/>
-    <mergeCell ref="B291:D291"/>
-    <mergeCell ref="B292:D292"/>
-    <mergeCell ref="B281:D281"/>
-    <mergeCell ref="B282:D282"/>
-    <mergeCell ref="B283:D283"/>
-    <mergeCell ref="B284:D284"/>
-    <mergeCell ref="B285:D285"/>
-    <mergeCell ref="B286:D286"/>
-    <mergeCell ref="B275:D275"/>
-    <mergeCell ref="B276:D276"/>
-    <mergeCell ref="B277:D277"/>
-    <mergeCell ref="B278:D278"/>
-    <mergeCell ref="B279:D279"/>
-    <mergeCell ref="B280:D280"/>
-    <mergeCell ref="B269:D269"/>
-    <mergeCell ref="B270:D270"/>
-    <mergeCell ref="B271:D271"/>
-    <mergeCell ref="B272:D272"/>
-    <mergeCell ref="B273:D273"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="B263:D263"/>
-    <mergeCell ref="B264:D264"/>
-    <mergeCell ref="B265:D265"/>
-    <mergeCell ref="B266:D266"/>
-    <mergeCell ref="B267:D267"/>
-    <mergeCell ref="B268:D268"/>
-    <mergeCell ref="B257:D257"/>
-    <mergeCell ref="B258:D258"/>
-    <mergeCell ref="B259:D259"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="B261:D261"/>
-    <mergeCell ref="B262:D262"/>
-    <mergeCell ref="B251:D251"/>
-    <mergeCell ref="B252:D252"/>
-    <mergeCell ref="B253:D253"/>
-    <mergeCell ref="B254:D254"/>
-    <mergeCell ref="B255:D255"/>
-    <mergeCell ref="B256:D256"/>
-    <mergeCell ref="B245:D245"/>
-    <mergeCell ref="B246:D246"/>
-    <mergeCell ref="B247:D247"/>
-    <mergeCell ref="B248:D248"/>
-    <mergeCell ref="B249:D249"/>
-    <mergeCell ref="B250:D250"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="B240:D240"/>
-    <mergeCell ref="B241:D241"/>
-    <mergeCell ref="B242:D242"/>
-    <mergeCell ref="B243:D243"/>
-    <mergeCell ref="B244:D244"/>
-    <mergeCell ref="B233:D233"/>
-    <mergeCell ref="B234:D234"/>
-    <mergeCell ref="B235:D235"/>
-    <mergeCell ref="B236:D236"/>
-    <mergeCell ref="B237:D237"/>
-    <mergeCell ref="B238:D238"/>
-    <mergeCell ref="B227:D227"/>
-    <mergeCell ref="B228:D228"/>
-    <mergeCell ref="B229:D229"/>
-    <mergeCell ref="B230:D230"/>
-    <mergeCell ref="B231:D231"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="B221:D221"/>
-    <mergeCell ref="B222:D222"/>
-    <mergeCell ref="B223:D223"/>
-    <mergeCell ref="B224:D224"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="B226:D226"/>
-    <mergeCell ref="B215:D215"/>
-    <mergeCell ref="B216:D216"/>
-    <mergeCell ref="B217:D217"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="B219:D219"/>
-    <mergeCell ref="B220:D220"/>
-    <mergeCell ref="B209:D209"/>
-    <mergeCell ref="B210:D210"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="B212:D212"/>
-    <mergeCell ref="B213:D213"/>
-    <mergeCell ref="B214:D214"/>
-    <mergeCell ref="B203:D203"/>
-    <mergeCell ref="B204:D204"/>
-    <mergeCell ref="B205:D205"/>
-    <mergeCell ref="B206:D206"/>
-    <mergeCell ref="B207:D207"/>
-    <mergeCell ref="B208:D208"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="B198:D198"/>
-    <mergeCell ref="B199:D199"/>
-    <mergeCell ref="B200:D200"/>
-    <mergeCell ref="B201:D201"/>
-    <mergeCell ref="B202:D202"/>
-    <mergeCell ref="B191:D191"/>
-    <mergeCell ref="B192:D192"/>
-    <mergeCell ref="B193:D193"/>
-    <mergeCell ref="B194:D194"/>
-    <mergeCell ref="B195:D195"/>
-    <mergeCell ref="B196:D196"/>
-    <mergeCell ref="B185:D185"/>
-    <mergeCell ref="B186:D186"/>
-    <mergeCell ref="B187:D187"/>
-    <mergeCell ref="B188:D188"/>
-    <mergeCell ref="B189:D189"/>
-    <mergeCell ref="B190:D190"/>
-    <mergeCell ref="B179:D179"/>
-    <mergeCell ref="B180:D180"/>
-    <mergeCell ref="B181:D181"/>
-    <mergeCell ref="B182:D182"/>
-    <mergeCell ref="B183:D183"/>
-    <mergeCell ref="B184:D184"/>
-    <mergeCell ref="B173:D173"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B175:D175"/>
-    <mergeCell ref="B176:D176"/>
-    <mergeCell ref="B177:D177"/>
-    <mergeCell ref="B178:D178"/>
-    <mergeCell ref="B167:D167"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="B169:D169"/>
-    <mergeCell ref="B170:D170"/>
-    <mergeCell ref="B171:D171"/>
-    <mergeCell ref="B172:D172"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="B162:D162"/>
-    <mergeCell ref="B163:D163"/>
-    <mergeCell ref="B164:D164"/>
-    <mergeCell ref="B165:D165"/>
-    <mergeCell ref="B166:D166"/>
-    <mergeCell ref="B155:D155"/>
-    <mergeCell ref="B156:D156"/>
-    <mergeCell ref="B157:D157"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="B160:D160"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="B151:D151"/>
-    <mergeCell ref="B152:D152"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="B144:D144"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="B146:D146"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="B148:D148"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="B138:D138"/>
-    <mergeCell ref="B139:D139"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="B142:D142"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="B128:D128"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B122:D122"/>
-    <mergeCell ref="B123:D123"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -8013,6 +7541,471 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="B148:D148"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="B138:D138"/>
+    <mergeCell ref="B139:D139"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="B155:D155"/>
+    <mergeCell ref="B156:D156"/>
+    <mergeCell ref="B157:D157"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="B160:D160"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B151:D151"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="B167:D167"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="B169:D169"/>
+    <mergeCell ref="B170:D170"/>
+    <mergeCell ref="B171:D171"/>
+    <mergeCell ref="B172:D172"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="B163:D163"/>
+    <mergeCell ref="B164:D164"/>
+    <mergeCell ref="B165:D165"/>
+    <mergeCell ref="B166:D166"/>
+    <mergeCell ref="B179:D179"/>
+    <mergeCell ref="B180:D180"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="B182:D182"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="B184:D184"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B175:D175"/>
+    <mergeCell ref="B176:D176"/>
+    <mergeCell ref="B177:D177"/>
+    <mergeCell ref="B178:D178"/>
+    <mergeCell ref="B191:D191"/>
+    <mergeCell ref="B192:D192"/>
+    <mergeCell ref="B193:D193"/>
+    <mergeCell ref="B194:D194"/>
+    <mergeCell ref="B195:D195"/>
+    <mergeCell ref="B196:D196"/>
+    <mergeCell ref="B185:D185"/>
+    <mergeCell ref="B186:D186"/>
+    <mergeCell ref="B187:D187"/>
+    <mergeCell ref="B188:D188"/>
+    <mergeCell ref="B189:D189"/>
+    <mergeCell ref="B190:D190"/>
+    <mergeCell ref="B203:D203"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="B205:D205"/>
+    <mergeCell ref="B206:D206"/>
+    <mergeCell ref="B207:D207"/>
+    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="B198:D198"/>
+    <mergeCell ref="B199:D199"/>
+    <mergeCell ref="B200:D200"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="B202:D202"/>
+    <mergeCell ref="B215:D215"/>
+    <mergeCell ref="B216:D216"/>
+    <mergeCell ref="B217:D217"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="B219:D219"/>
+    <mergeCell ref="B220:D220"/>
+    <mergeCell ref="B209:D209"/>
+    <mergeCell ref="B210:D210"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="B212:D212"/>
+    <mergeCell ref="B213:D213"/>
+    <mergeCell ref="B214:D214"/>
+    <mergeCell ref="B227:D227"/>
+    <mergeCell ref="B228:D228"/>
+    <mergeCell ref="B229:D229"/>
+    <mergeCell ref="B230:D230"/>
+    <mergeCell ref="B231:D231"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="B221:D221"/>
+    <mergeCell ref="B222:D222"/>
+    <mergeCell ref="B223:D223"/>
+    <mergeCell ref="B224:D224"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="B226:D226"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="B240:D240"/>
+    <mergeCell ref="B241:D241"/>
+    <mergeCell ref="B242:D242"/>
+    <mergeCell ref="B243:D243"/>
+    <mergeCell ref="B244:D244"/>
+    <mergeCell ref="B233:D233"/>
+    <mergeCell ref="B234:D234"/>
+    <mergeCell ref="B235:D235"/>
+    <mergeCell ref="B236:D236"/>
+    <mergeCell ref="B237:D237"/>
+    <mergeCell ref="B238:D238"/>
+    <mergeCell ref="B251:D251"/>
+    <mergeCell ref="B252:D252"/>
+    <mergeCell ref="B253:D253"/>
+    <mergeCell ref="B254:D254"/>
+    <mergeCell ref="B255:D255"/>
+    <mergeCell ref="B256:D256"/>
+    <mergeCell ref="B245:D245"/>
+    <mergeCell ref="B246:D246"/>
+    <mergeCell ref="B247:D247"/>
+    <mergeCell ref="B248:D248"/>
+    <mergeCell ref="B249:D249"/>
+    <mergeCell ref="B250:D250"/>
+    <mergeCell ref="B263:D263"/>
+    <mergeCell ref="B264:D264"/>
+    <mergeCell ref="B265:D265"/>
+    <mergeCell ref="B266:D266"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="B268:D268"/>
+    <mergeCell ref="B257:D257"/>
+    <mergeCell ref="B258:D258"/>
+    <mergeCell ref="B259:D259"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="B261:D261"/>
+    <mergeCell ref="B262:D262"/>
+    <mergeCell ref="B275:D275"/>
+    <mergeCell ref="B276:D276"/>
+    <mergeCell ref="B277:D277"/>
+    <mergeCell ref="B278:D278"/>
+    <mergeCell ref="B279:D279"/>
+    <mergeCell ref="B280:D280"/>
+    <mergeCell ref="B269:D269"/>
+    <mergeCell ref="B270:D270"/>
+    <mergeCell ref="B271:D271"/>
+    <mergeCell ref="B272:D272"/>
+    <mergeCell ref="B273:D273"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="B287:D287"/>
+    <mergeCell ref="B288:D288"/>
+    <mergeCell ref="B289:D289"/>
+    <mergeCell ref="B290:D290"/>
+    <mergeCell ref="B291:D291"/>
+    <mergeCell ref="B292:D292"/>
+    <mergeCell ref="B281:D281"/>
+    <mergeCell ref="B282:D282"/>
+    <mergeCell ref="B283:D283"/>
+    <mergeCell ref="B284:D284"/>
+    <mergeCell ref="B285:D285"/>
+    <mergeCell ref="B286:D286"/>
+    <mergeCell ref="B299:D299"/>
+    <mergeCell ref="B300:D300"/>
+    <mergeCell ref="B301:D301"/>
+    <mergeCell ref="B302:D302"/>
+    <mergeCell ref="B303:D303"/>
+    <mergeCell ref="B304:D304"/>
+    <mergeCell ref="B293:D293"/>
+    <mergeCell ref="B294:D294"/>
+    <mergeCell ref="B295:D295"/>
+    <mergeCell ref="B296:D296"/>
+    <mergeCell ref="B297:D297"/>
+    <mergeCell ref="B298:D298"/>
+    <mergeCell ref="B311:D311"/>
+    <mergeCell ref="B312:D312"/>
+    <mergeCell ref="B313:D313"/>
+    <mergeCell ref="B314:D314"/>
+    <mergeCell ref="B315:D315"/>
+    <mergeCell ref="B316:D316"/>
+    <mergeCell ref="B305:D305"/>
+    <mergeCell ref="B306:D306"/>
+    <mergeCell ref="B307:D307"/>
+    <mergeCell ref="B308:D308"/>
+    <mergeCell ref="B309:D309"/>
+    <mergeCell ref="B310:D310"/>
+    <mergeCell ref="B323:D323"/>
+    <mergeCell ref="B324:D324"/>
+    <mergeCell ref="B325:D325"/>
+    <mergeCell ref="B326:D326"/>
+    <mergeCell ref="B327:D327"/>
+    <mergeCell ref="B328:D328"/>
+    <mergeCell ref="B317:D317"/>
+    <mergeCell ref="B318:D318"/>
+    <mergeCell ref="B319:D319"/>
+    <mergeCell ref="B320:D320"/>
+    <mergeCell ref="B321:D321"/>
+    <mergeCell ref="B322:D322"/>
+    <mergeCell ref="B335:D335"/>
+    <mergeCell ref="B336:D336"/>
+    <mergeCell ref="B337:D337"/>
+    <mergeCell ref="B338:D338"/>
+    <mergeCell ref="B339:D339"/>
+    <mergeCell ref="B340:D340"/>
+    <mergeCell ref="B329:D329"/>
+    <mergeCell ref="B330:D330"/>
+    <mergeCell ref="B331:D331"/>
+    <mergeCell ref="B332:D332"/>
+    <mergeCell ref="B333:D333"/>
+    <mergeCell ref="B334:D334"/>
+    <mergeCell ref="B347:D347"/>
+    <mergeCell ref="B348:D348"/>
+    <mergeCell ref="B349:D349"/>
+    <mergeCell ref="B350:D350"/>
+    <mergeCell ref="B351:D351"/>
+    <mergeCell ref="B352:D352"/>
+    <mergeCell ref="B341:D341"/>
+    <mergeCell ref="B342:D342"/>
+    <mergeCell ref="B343:D343"/>
+    <mergeCell ref="B344:D344"/>
+    <mergeCell ref="B345:D345"/>
+    <mergeCell ref="B346:D346"/>
+    <mergeCell ref="B359:D359"/>
+    <mergeCell ref="B360:D360"/>
+    <mergeCell ref="B361:D361"/>
+    <mergeCell ref="B362:D362"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="B364:D364"/>
+    <mergeCell ref="B353:D353"/>
+    <mergeCell ref="B354:D354"/>
+    <mergeCell ref="B355:D355"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="B357:D357"/>
+    <mergeCell ref="B358:D358"/>
+    <mergeCell ref="B371:D371"/>
+    <mergeCell ref="B372:D372"/>
+    <mergeCell ref="B373:D373"/>
+    <mergeCell ref="B374:D374"/>
+    <mergeCell ref="B375:D375"/>
+    <mergeCell ref="B376:D376"/>
+    <mergeCell ref="B365:D365"/>
+    <mergeCell ref="B366:D366"/>
+    <mergeCell ref="B367:D367"/>
+    <mergeCell ref="B368:D368"/>
+    <mergeCell ref="B369:D369"/>
+    <mergeCell ref="B370:D370"/>
+    <mergeCell ref="B383:D383"/>
+    <mergeCell ref="B384:D384"/>
+    <mergeCell ref="B385:D385"/>
+    <mergeCell ref="B386:D386"/>
+    <mergeCell ref="B387:D387"/>
+    <mergeCell ref="B388:D388"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="B378:D378"/>
+    <mergeCell ref="B379:D379"/>
+    <mergeCell ref="B380:D380"/>
+    <mergeCell ref="B381:D381"/>
+    <mergeCell ref="B382:D382"/>
+    <mergeCell ref="B395:D395"/>
+    <mergeCell ref="B396:D396"/>
+    <mergeCell ref="B397:D397"/>
+    <mergeCell ref="B398:D398"/>
+    <mergeCell ref="B399:D399"/>
+    <mergeCell ref="B400:D400"/>
+    <mergeCell ref="B389:D389"/>
+    <mergeCell ref="B390:D390"/>
+    <mergeCell ref="B391:D391"/>
+    <mergeCell ref="B392:D392"/>
+    <mergeCell ref="B393:D393"/>
+    <mergeCell ref="B394:D394"/>
+    <mergeCell ref="B407:D407"/>
+    <mergeCell ref="B408:D408"/>
+    <mergeCell ref="B409:D409"/>
+    <mergeCell ref="B410:D410"/>
+    <mergeCell ref="B411:D411"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="B401:D401"/>
+    <mergeCell ref="B402:D402"/>
+    <mergeCell ref="B403:D403"/>
+    <mergeCell ref="B404:D404"/>
+    <mergeCell ref="B405:D405"/>
+    <mergeCell ref="B406:D406"/>
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="B420:D420"/>
+    <mergeCell ref="B421:D421"/>
+    <mergeCell ref="B422:D422"/>
+    <mergeCell ref="B423:D423"/>
+    <mergeCell ref="B424:D424"/>
+    <mergeCell ref="B413:D413"/>
+    <mergeCell ref="B414:D414"/>
+    <mergeCell ref="B415:D415"/>
+    <mergeCell ref="B416:D416"/>
+    <mergeCell ref="B417:D417"/>
+    <mergeCell ref="B418:D418"/>
+    <mergeCell ref="B431:D431"/>
+    <mergeCell ref="B432:D432"/>
+    <mergeCell ref="B433:D433"/>
+    <mergeCell ref="B434:D434"/>
+    <mergeCell ref="B435:D435"/>
+    <mergeCell ref="B436:D436"/>
+    <mergeCell ref="B425:D425"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="B427:D427"/>
+    <mergeCell ref="B428:D428"/>
+    <mergeCell ref="B429:D429"/>
+    <mergeCell ref="B430:D430"/>
+    <mergeCell ref="B443:D443"/>
+    <mergeCell ref="B444:D444"/>
+    <mergeCell ref="B445:D445"/>
+    <mergeCell ref="B446:D446"/>
+    <mergeCell ref="B447:D447"/>
+    <mergeCell ref="B448:D448"/>
+    <mergeCell ref="B437:D437"/>
+    <mergeCell ref="B438:D438"/>
+    <mergeCell ref="B439:D439"/>
+    <mergeCell ref="B440:D440"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="B442:D442"/>
+    <mergeCell ref="B455:D455"/>
+    <mergeCell ref="B456:D456"/>
+    <mergeCell ref="B457:D457"/>
+    <mergeCell ref="B458:D458"/>
+    <mergeCell ref="B459:D459"/>
+    <mergeCell ref="B460:D460"/>
+    <mergeCell ref="B449:D449"/>
+    <mergeCell ref="B450:D450"/>
+    <mergeCell ref="B451:D451"/>
+    <mergeCell ref="B452:D452"/>
+    <mergeCell ref="B453:D453"/>
+    <mergeCell ref="B454:D454"/>
+    <mergeCell ref="B467:D467"/>
+    <mergeCell ref="B468:D468"/>
+    <mergeCell ref="B469:D469"/>
+    <mergeCell ref="B470:D470"/>
+    <mergeCell ref="B471:D471"/>
+    <mergeCell ref="B472:D472"/>
+    <mergeCell ref="B461:D461"/>
+    <mergeCell ref="B462:D462"/>
+    <mergeCell ref="B463:D463"/>
+    <mergeCell ref="B464:D464"/>
+    <mergeCell ref="B465:D465"/>
+    <mergeCell ref="B466:D466"/>
+    <mergeCell ref="B479:D479"/>
+    <mergeCell ref="B480:D480"/>
+    <mergeCell ref="B481:D481"/>
+    <mergeCell ref="B482:D482"/>
+    <mergeCell ref="B483:D483"/>
+    <mergeCell ref="B473:D473"/>
+    <mergeCell ref="B474:D474"/>
+    <mergeCell ref="B475:D475"/>
+    <mergeCell ref="B476:D476"/>
+    <mergeCell ref="B477:D477"/>
+    <mergeCell ref="B478:D478"/>
   </mergeCells>
   <conditionalFormatting sqref="I2:I483">
     <cfRule type="cellIs" dxfId="35" priority="56" stopIfTrue="1" operator="equal">
@@ -8128,8 +8121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE75CC54-FC21-468C-8044-AF2BCA5ACE26}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8146,11 +8139,11 @@
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="19" t="s">
         <v>1</v>
       </c>
@@ -8169,20 +8162,20 @@
       <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="28"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>18</v>
+      <c r="B2" s="25" t="s">
+        <v>17</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="12"/>
       <c r="F2" s="20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>10</v>
@@ -8196,35 +8189,35 @@
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>20</v>
+      <c r="B3" s="26" t="s">
+        <v>18</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="12"/>
       <c r="F3" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="20" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>16</v>
+      <c r="B4" s="26" t="s">
+        <v>15</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="12"/>
       <c r="F4" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>10</v>
@@ -8234,11 +8227,11 @@
         <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J5" s="27"/>
+      <c r="J5" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
